--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_20_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_20_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3699818.207267002</v>
+        <v>3697370.871629796</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8466.825513251155</v>
+        <v>8466.825513250596</v>
       </c>
     </row>
     <row r="9">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.694907492006684</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.465607960952184</v>
+        <v>6.465607960952525</v>
       </c>
       <c r="G5" t="n">
-        <v>6.465607960952184</v>
+        <v>6.465607960952525</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>6.465607960952525</v>
       </c>
       <c r="U5" t="n">
-        <v>6.465607960952184</v>
+        <v>5.694907492006982</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>5.694907492006684</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>5.694907492006982</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>6.465607960952525</v>
       </c>
       <c r="T6" t="n">
-        <v>6.465607960952184</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>6.465607960952184</v>
+        <v>6.465607960952525</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.465607960952184</v>
+        <v>6.465607960952525</v>
       </c>
     </row>
     <row r="7">
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>5.694907492006684</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>6.465607960952525</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>6.465607960952525</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>5.694907492006983</v>
       </c>
       <c r="U7" t="n">
-        <v>6.465607960952184</v>
+        <v>6.465607960952525</v>
       </c>
       <c r="V7" t="n">
-        <v>6.465607960952184</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.465607960952184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1151,46 +1151,46 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>6.05642108929943</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1221,49 +1221,49 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
         <v>6.056421089299432</v>
-      </c>
-      <c r="G9" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>6.876045741711437</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="V10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>351.0891661414432</v>
+        <v>349.4963392018751</v>
       </c>
       <c r="C11" t="n">
         <v>333.6282162489703</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>58.73156549837205</v>
+        <v>60.32439243794204</v>
       </c>
       <c r="T11" t="n">
         <v>168.9655674762584</v>
@@ -1467,7 +1467,7 @@
         <v>85.69226183416023</v>
       </c>
       <c r="I12" t="n">
-        <v>4.897501771871305</v>
+        <v>4.897501771871276</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>120.6339533591086</v>
+        <v>120.6339533591085</v>
       </c>
       <c r="T12" t="n">
         <v>189.0869881735923</v>
@@ -1546,7 +1546,7 @@
         <v>110.0968086150281</v>
       </c>
       <c r="I13" t="n">
-        <v>54.51473894591874</v>
+        <v>54.51473894591872</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>42.04726935219728</v>
+        <v>42.04726935219723</v>
       </c>
       <c r="S13" t="n">
         <v>152.2174597276066</v>
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>351.0891661414432</v>
+        <v>351.0891661414433</v>
       </c>
       <c r="C14" t="n">
-        <v>333.6282162489702</v>
+        <v>333.6282162489703</v>
       </c>
       <c r="D14" t="n">
-        <v>323.0383660986456</v>
+        <v>323.0383660986457</v>
       </c>
       <c r="E14" t="n">
-        <v>350.2856945502244</v>
+        <v>350.2856945502245</v>
       </c>
       <c r="F14" t="n">
-        <v>375.2313702196741</v>
+        <v>373.6385432801054</v>
       </c>
       <c r="G14" t="n">
-        <v>376.9286030567632</v>
+        <v>378.5214299963335</v>
       </c>
       <c r="H14" t="n">
         <v>255.2245941568677</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>60.32439243794208</v>
+        <v>60.32439243794207</v>
       </c>
       <c r="T14" t="n">
-        <v>168.9655674762584</v>
+        <v>168.9655674762585</v>
       </c>
       <c r="U14" t="n">
-        <v>219.290046826058</v>
+        <v>219.2900468260581</v>
       </c>
       <c r="V14" t="n">
         <v>296.1075829480976</v>
@@ -1673,7 +1673,7 @@
         <v>338.0864251564317</v>
       </c>
       <c r="Y14" t="n">
-        <v>354.5932631340162</v>
+        <v>354.5932631340163</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>85.69226183416023</v>
       </c>
       <c r="I15" t="n">
-        <v>4.897501771871305</v>
+        <v>4.897501771871276</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>120.6339533591086</v>
+        <v>120.6339533591085</v>
       </c>
       <c r="T15" t="n">
         <v>189.0869881735923</v>
@@ -1768,22 +1768,22 @@
         <v>135.6021455765905</v>
       </c>
       <c r="D16" t="n">
-        <v>116.970797496175</v>
+        <v>116.9707974961751</v>
       </c>
       <c r="E16" t="n">
         <v>114.7892871245319</v>
       </c>
       <c r="F16" t="n">
-        <v>113.7763725008939</v>
+        <v>113.776372500894</v>
       </c>
       <c r="G16" t="n">
         <v>134.042187557545</v>
       </c>
       <c r="H16" t="n">
-        <v>110.0968086150281</v>
+        <v>110.0968086150282</v>
       </c>
       <c r="I16" t="n">
-        <v>54.51473894591874</v>
+        <v>54.51473894591876</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>42.04726935219728</v>
+        <v>42.04726935219727</v>
       </c>
       <c r="S16" t="n">
         <v>152.2174597276066</v>
@@ -1828,7 +1828,7 @@
         <v>254.8783228145537</v>
       </c>
       <c r="X16" t="n">
-        <v>194.0649798669998</v>
+        <v>194.0649798669999</v>
       </c>
       <c r="Y16" t="n">
         <v>186.9399778300575</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>350.9753927886168</v>
+        <v>350.9753927886169</v>
       </c>
       <c r="C17" t="n">
-        <v>333.5144428961437</v>
+        <v>333.5144428961439</v>
       </c>
       <c r="D17" t="n">
-        <v>322.9245927458192</v>
+        <v>322.9245927458193</v>
       </c>
       <c r="E17" t="n">
-        <v>350.171921197398</v>
+        <v>350.1719211973981</v>
       </c>
       <c r="F17" t="n">
-        <v>375.1175968668476</v>
+        <v>375.1175968668477</v>
       </c>
       <c r="G17" t="n">
-        <v>378.407656643507</v>
+        <v>378.4076566435071</v>
       </c>
       <c r="H17" t="n">
-        <v>255.1108208040412</v>
+        <v>255.1108208040414</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.21061908511558</v>
+        <v>60.21061908511568</v>
       </c>
       <c r="T17" t="n">
-        <v>168.8517941234319</v>
+        <v>168.8517941234321</v>
       </c>
       <c r="U17" t="n">
-        <v>219.1762734732316</v>
+        <v>219.1762734732317</v>
       </c>
       <c r="V17" t="n">
-        <v>295.9938095952711</v>
+        <v>295.9938095952712</v>
       </c>
       <c r="W17" t="n">
-        <v>317.4825198425492</v>
+        <v>317.4825198425493</v>
       </c>
       <c r="X17" t="n">
-        <v>337.9726518036052</v>
+        <v>337.9726518036053</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.4794897811898</v>
+        <v>354.4794897811899</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>85.69226183416023</v>
       </c>
       <c r="I18" t="n">
-        <v>4.897501771871305</v>
+        <v>4.897501771871276</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>120.6339533591086</v>
+        <v>120.6339533591085</v>
       </c>
       <c r="T18" t="n">
         <v>189.0869881735923</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.0735313070735</v>
+        <v>148.0735313070736</v>
       </c>
       <c r="C19" t="n">
-        <v>135.488372223764</v>
+        <v>135.4883722237642</v>
       </c>
       <c r="D19" t="n">
-        <v>116.8570241433485</v>
+        <v>116.8570241433487</v>
       </c>
       <c r="E19" t="n">
-        <v>114.6755137717054</v>
+        <v>114.6755137717055</v>
       </c>
       <c r="F19" t="n">
-        <v>113.6625991480674</v>
+        <v>113.6625991480676</v>
       </c>
       <c r="G19" t="n">
-        <v>133.9284142047185</v>
+        <v>133.9284142047187</v>
       </c>
       <c r="H19" t="n">
-        <v>109.9830352622016</v>
+        <v>109.9830352622018</v>
       </c>
       <c r="I19" t="n">
-        <v>54.40096559309224</v>
+        <v>54.40096559309237</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.93349599937079</v>
+        <v>41.93349599937089</v>
       </c>
       <c r="S19" t="n">
-        <v>152.1036863747801</v>
+        <v>152.1036863747802</v>
       </c>
       <c r="T19" t="n">
-        <v>186.3422800891275</v>
+        <v>186.3422800891276</v>
       </c>
       <c r="U19" t="n">
-        <v>254.4349014118702</v>
+        <v>254.4349014118703</v>
       </c>
       <c r="V19" t="n">
-        <v>220.3791944489642</v>
+        <v>220.3791944489643</v>
       </c>
       <c r="W19" t="n">
-        <v>254.7645494617272</v>
+        <v>254.7645494617273</v>
       </c>
       <c r="X19" t="n">
-        <v>193.9512065141734</v>
+        <v>193.9512065141735</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.826204477231</v>
+        <v>186.8262044772311</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>350.9753927886168</v>
+        <v>350.9753927886169</v>
       </c>
       <c r="C20" t="n">
-        <v>333.5144428961437</v>
+        <v>333.5144428961439</v>
       </c>
       <c r="D20" t="n">
-        <v>322.9245927458192</v>
+        <v>322.9245927458193</v>
       </c>
       <c r="E20" t="n">
-        <v>350.171921197398</v>
+        <v>350.1719211973981</v>
       </c>
       <c r="F20" t="n">
-        <v>375.1175968668476</v>
+        <v>375.1175968668477</v>
       </c>
       <c r="G20" t="n">
-        <v>378.407656643507</v>
+        <v>378.4076566435071</v>
       </c>
       <c r="H20" t="n">
-        <v>255.1108208040412</v>
+        <v>255.1108208040414</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.21061908511552</v>
+        <v>60.21061908511568</v>
       </c>
       <c r="T20" t="n">
-        <v>168.8517941234319</v>
+        <v>168.8517941234321</v>
       </c>
       <c r="U20" t="n">
-        <v>219.1762734732316</v>
+        <v>219.1762734732317</v>
       </c>
       <c r="V20" t="n">
-        <v>295.9938095952711</v>
+        <v>295.9938095952712</v>
       </c>
       <c r="W20" t="n">
-        <v>317.4825198425492</v>
+        <v>317.4825198425493</v>
       </c>
       <c r="X20" t="n">
-        <v>337.9726518036052</v>
+        <v>337.9726518036053</v>
       </c>
       <c r="Y20" t="n">
-        <v>354.4794897811898</v>
+        <v>354.4794897811899</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>148.0735313070735</v>
+        <v>148.0735313070736</v>
       </c>
       <c r="C22" t="n">
-        <v>135.488372223764</v>
+        <v>135.4883722237642</v>
       </c>
       <c r="D22" t="n">
-        <v>116.8570241433485</v>
+        <v>116.8570241433487</v>
       </c>
       <c r="E22" t="n">
-        <v>114.6755137717054</v>
+        <v>114.6755137717055</v>
       </c>
       <c r="F22" t="n">
-        <v>113.6625991480674</v>
+        <v>113.6625991480676</v>
       </c>
       <c r="G22" t="n">
-        <v>133.9284142047185</v>
+        <v>133.9284142047187</v>
       </c>
       <c r="H22" t="n">
-        <v>109.9830352622016</v>
+        <v>109.9830352622018</v>
       </c>
       <c r="I22" t="n">
-        <v>54.40096559309222</v>
+        <v>54.40096559309237</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.93349599937075</v>
+        <v>41.93349599937089</v>
       </c>
       <c r="S22" t="n">
-        <v>152.1036863747801</v>
+        <v>152.1036863747802</v>
       </c>
       <c r="T22" t="n">
-        <v>186.3422800891275</v>
+        <v>186.3422800891276</v>
       </c>
       <c r="U22" t="n">
-        <v>254.4349014118702</v>
+        <v>254.4349014118703</v>
       </c>
       <c r="V22" t="n">
-        <v>220.3791944489642</v>
+        <v>220.3791944489643</v>
       </c>
       <c r="W22" t="n">
-        <v>254.7645494617272</v>
+        <v>254.7645494617273</v>
       </c>
       <c r="X22" t="n">
-        <v>193.9512065141734</v>
+        <v>193.9512065141735</v>
       </c>
       <c r="Y22" t="n">
-        <v>186.826204477231</v>
+        <v>186.8262044772311</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>350.9753927886168</v>
+        <v>350.9753927886169</v>
       </c>
       <c r="C23" t="n">
-        <v>333.5144428961437</v>
+        <v>333.5144428961439</v>
       </c>
       <c r="D23" t="n">
-        <v>322.9245927458192</v>
+        <v>322.9245927458193</v>
       </c>
       <c r="E23" t="n">
-        <v>350.171921197398</v>
+        <v>350.1719211973981</v>
       </c>
       <c r="F23" t="n">
-        <v>375.1175968668476</v>
+        <v>375.1175968668477</v>
       </c>
       <c r="G23" t="n">
-        <v>378.407656643507</v>
+        <v>378.4076566435071</v>
       </c>
       <c r="H23" t="n">
-        <v>255.1108208040412</v>
+        <v>255.1108208040413</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.21061908511555</v>
+        <v>60.21061908511567</v>
       </c>
       <c r="T23" t="n">
-        <v>168.8517941234319</v>
+        <v>168.8517941234321</v>
       </c>
       <c r="U23" t="n">
-        <v>219.1762734732316</v>
+        <v>219.1762734732317</v>
       </c>
       <c r="V23" t="n">
-        <v>295.9938095952711</v>
+        <v>295.9938095952712</v>
       </c>
       <c r="W23" t="n">
-        <v>317.4825198425492</v>
+        <v>317.4825198425493</v>
       </c>
       <c r="X23" t="n">
-        <v>337.9726518036052</v>
+        <v>337.9726518036053</v>
       </c>
       <c r="Y23" t="n">
-        <v>354.4794897811898</v>
+        <v>354.4794897811899</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>148.0735313070735</v>
+        <v>148.0735313070736</v>
       </c>
       <c r="C25" t="n">
-        <v>135.488372223764</v>
+        <v>135.4883722237641</v>
       </c>
       <c r="D25" t="n">
-        <v>116.8570241433486</v>
+        <v>116.8570241433487</v>
       </c>
       <c r="E25" t="n">
-        <v>114.6755137717054</v>
+        <v>114.6755137717055</v>
       </c>
       <c r="F25" t="n">
-        <v>113.6625991480674</v>
+        <v>113.6625991480676</v>
       </c>
       <c r="G25" t="n">
-        <v>133.9284142047185</v>
+        <v>133.9284142047186</v>
       </c>
       <c r="H25" t="n">
-        <v>109.9830352622016</v>
+        <v>109.9830352622018</v>
       </c>
       <c r="I25" t="n">
-        <v>54.40096559309224</v>
+        <v>54.40096559309235</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.93349599937075</v>
+        <v>41.93349599937086</v>
       </c>
       <c r="S25" t="n">
-        <v>152.1036863747801</v>
+        <v>152.1036863747802</v>
       </c>
       <c r="T25" t="n">
-        <v>186.3422800891275</v>
+        <v>186.3422800891276</v>
       </c>
       <c r="U25" t="n">
-        <v>254.4349014118702</v>
+        <v>254.4349014118703</v>
       </c>
       <c r="V25" t="n">
-        <v>220.3791944489642</v>
+        <v>220.3791944489643</v>
       </c>
       <c r="W25" t="n">
-        <v>254.7645494617272</v>
+        <v>254.7645494617273</v>
       </c>
       <c r="X25" t="n">
-        <v>193.9512065141734</v>
+        <v>193.9512065141735</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.826204477231</v>
+        <v>186.8262044772311</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32439243794207</v>
+        <v>60.32439243794205</v>
       </c>
       <c r="T26" t="n">
         <v>168.9655674762585</v>
@@ -2728,7 +2728,7 @@
         <v>134.042187557545</v>
       </c>
       <c r="H28" t="n">
-        <v>110.0968086150282</v>
+        <v>110.0968086150281</v>
       </c>
       <c r="I28" t="n">
         <v>54.51473894591874</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04726935219726</v>
+        <v>42.04726935219725</v>
       </c>
       <c r="S28" t="n">
         <v>152.2174597276066</v>
       </c>
       <c r="T28" t="n">
-        <v>186.4560534419544</v>
+        <v>186.456053441954</v>
       </c>
       <c r="U28" t="n">
         <v>254.5486747646967</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32439243794207</v>
+        <v>60.32439243794205</v>
       </c>
       <c r="T29" t="n">
         <v>168.9655674762585</v>
@@ -2959,16 +2959,16 @@
         <v>114.7892871245319</v>
       </c>
       <c r="F31" t="n">
-        <v>113.776372500894</v>
+        <v>113.7763725008939</v>
       </c>
       <c r="G31" t="n">
         <v>134.042187557545</v>
       </c>
       <c r="H31" t="n">
-        <v>110.0968086150282</v>
+        <v>110.0968086150281</v>
       </c>
       <c r="I31" t="n">
-        <v>54.51473894591875</v>
+        <v>54.51473894591874</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04726935219726</v>
+        <v>42.04726935219725</v>
       </c>
       <c r="S31" t="n">
         <v>152.2174597276066</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>350.9753927886168</v>
+        <v>350.9753927886169</v>
       </c>
       <c r="C32" t="n">
-        <v>333.5144428961437</v>
+        <v>333.5144428961439</v>
       </c>
       <c r="D32" t="n">
-        <v>322.9245927458192</v>
+        <v>322.9245927458193</v>
       </c>
       <c r="E32" t="n">
-        <v>350.171921197398</v>
+        <v>350.1719211973981</v>
       </c>
       <c r="F32" t="n">
-        <v>375.1175968668476</v>
+        <v>375.1175968668477</v>
       </c>
       <c r="G32" t="n">
-        <v>378.407656643507</v>
+        <v>378.4076566435071</v>
       </c>
       <c r="H32" t="n">
-        <v>255.1108208040412</v>
+        <v>255.1108208040414</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.21061908511555</v>
+        <v>60.21061908511569</v>
       </c>
       <c r="T32" t="n">
-        <v>168.8517941234319</v>
+        <v>168.8517941234321</v>
       </c>
       <c r="U32" t="n">
-        <v>219.1762734732316</v>
+        <v>219.1762734732317</v>
       </c>
       <c r="V32" t="n">
-        <v>295.9938095952711</v>
+        <v>295.9938095952712</v>
       </c>
       <c r="W32" t="n">
-        <v>317.4825198425492</v>
+        <v>317.4825198425493</v>
       </c>
       <c r="X32" t="n">
-        <v>337.9726518036052</v>
+        <v>337.9726518036053</v>
       </c>
       <c r="Y32" t="n">
-        <v>354.4794897811898</v>
+        <v>354.4794897811899</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>148.0735313070735</v>
+        <v>148.0735313070736</v>
       </c>
       <c r="C34" t="n">
-        <v>135.488372223764</v>
+        <v>135.4883722237642</v>
       </c>
       <c r="D34" t="n">
-        <v>116.8570241433486</v>
+        <v>116.8570241433487</v>
       </c>
       <c r="E34" t="n">
-        <v>114.6755137717054</v>
+        <v>114.6755137717055</v>
       </c>
       <c r="F34" t="n">
-        <v>113.6625991480674</v>
+        <v>113.6625991480676</v>
       </c>
       <c r="G34" t="n">
-        <v>133.9284142047185</v>
+        <v>133.9284142047187</v>
       </c>
       <c r="H34" t="n">
-        <v>109.9830352622016</v>
+        <v>109.9830352622018</v>
       </c>
       <c r="I34" t="n">
-        <v>54.40096559309224</v>
+        <v>54.40096559309238</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.93349599937075</v>
+        <v>41.93349599937089</v>
       </c>
       <c r="S34" t="n">
-        <v>152.1036863747801</v>
+        <v>152.1036863747802</v>
       </c>
       <c r="T34" t="n">
-        <v>186.3422800891275</v>
+        <v>186.3422800891276</v>
       </c>
       <c r="U34" t="n">
-        <v>254.4349014118702</v>
+        <v>254.4349014118703</v>
       </c>
       <c r="V34" t="n">
-        <v>220.3791944489642</v>
+        <v>220.3791944489643</v>
       </c>
       <c r="W34" t="n">
-        <v>254.7645494617272</v>
+        <v>254.7645494617273</v>
       </c>
       <c r="X34" t="n">
-        <v>193.9512065141734</v>
+        <v>193.9512065141735</v>
       </c>
       <c r="Y34" t="n">
-        <v>186.826204477231</v>
+        <v>186.8262044772311</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>333.5144428961438</v>
       </c>
       <c r="D35" t="n">
-        <v>322.9245927458202</v>
+        <v>322.9245927458192</v>
       </c>
       <c r="E35" t="n">
         <v>350.171921197398</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.21061908511564</v>
+        <v>60.21061908511562</v>
       </c>
       <c r="T35" t="n">
         <v>168.851794123432</v>
@@ -3503,7 +3503,7 @@
         <v>350.9753927886169</v>
       </c>
       <c r="C38" t="n">
-        <v>333.5144428961438</v>
+        <v>333.5144428961439</v>
       </c>
       <c r="D38" t="n">
         <v>322.9245927458193</v>
@@ -3518,7 +3518,7 @@
         <v>378.4076566435071</v>
       </c>
       <c r="H38" t="n">
-        <v>255.1108208040413</v>
+        <v>255.1108208040414</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.21061908511564</v>
+        <v>60.21061908511568</v>
       </c>
       <c r="T38" t="n">
-        <v>168.851794123432</v>
+        <v>168.8517941234321</v>
       </c>
       <c r="U38" t="n">
-        <v>219.1762734732316</v>
+        <v>219.1762734732317</v>
       </c>
       <c r="V38" t="n">
         <v>295.9938095952712</v>
@@ -3569,7 +3569,7 @@
         <v>337.9726518036053</v>
       </c>
       <c r="Y38" t="n">
-        <v>354.4794897811898</v>
+        <v>354.4794897811899</v>
       </c>
     </row>
     <row r="39">
@@ -3661,25 +3661,25 @@
         <v>148.0735313070736</v>
       </c>
       <c r="C40" t="n">
-        <v>135.4883722237641</v>
+        <v>135.4883722237642</v>
       </c>
       <c r="D40" t="n">
-        <v>116.8570241433486</v>
+        <v>116.8570241433487</v>
       </c>
       <c r="E40" t="n">
         <v>114.6755137717055</v>
       </c>
       <c r="F40" t="n">
-        <v>113.6625991480675</v>
+        <v>113.6625991480676</v>
       </c>
       <c r="G40" t="n">
-        <v>133.9284142047186</v>
+        <v>133.9284142047187</v>
       </c>
       <c r="H40" t="n">
-        <v>109.9830352622017</v>
+        <v>109.9830352622018</v>
       </c>
       <c r="I40" t="n">
-        <v>54.40096559309232</v>
+        <v>54.40096559309237</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.93349599937083</v>
+        <v>41.93349599937089</v>
       </c>
       <c r="S40" t="n">
         <v>152.1036863747802</v>
@@ -3724,7 +3724,7 @@
         <v>254.7645494617273</v>
       </c>
       <c r="X40" t="n">
-        <v>193.9512065141734</v>
+        <v>193.9512065141735</v>
       </c>
       <c r="Y40" t="n">
         <v>186.8262044772311</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>351.0891661414432</v>
+        <v>351.0891661414433</v>
       </c>
       <c r="C41" t="n">
-        <v>333.6282162489702</v>
+        <v>333.6282162489703</v>
       </c>
       <c r="D41" t="n">
-        <v>323.0383660986456</v>
+        <v>323.0383660986457</v>
       </c>
       <c r="E41" t="n">
-        <v>350.2856945502244</v>
+        <v>350.2856945502245</v>
       </c>
       <c r="F41" t="n">
         <v>375.2313702196741</v>
       </c>
       <c r="G41" t="n">
-        <v>378.5214299963334</v>
+        <v>378.5214299963335</v>
       </c>
       <c r="H41" t="n">
-        <v>253.6317672172993</v>
+        <v>253.631767217299</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32439243794201</v>
+        <v>60.32439243794207</v>
       </c>
       <c r="T41" t="n">
-        <v>168.9655674762584</v>
+        <v>168.9655674762585</v>
       </c>
       <c r="U41" t="n">
-        <v>219.290046826058</v>
+        <v>219.2900468260581</v>
       </c>
       <c r="V41" t="n">
         <v>296.1075829480976</v>
@@ -3806,7 +3806,7 @@
         <v>338.0864251564317</v>
       </c>
       <c r="Y41" t="n">
-        <v>354.5932631340162</v>
+        <v>354.5932631340163</v>
       </c>
     </row>
     <row r="42">
@@ -3901,22 +3901,22 @@
         <v>135.6021455765905</v>
       </c>
       <c r="D43" t="n">
-        <v>116.970797496175</v>
+        <v>116.9707974961751</v>
       </c>
       <c r="E43" t="n">
-        <v>114.7892871245318</v>
+        <v>114.7892871245319</v>
       </c>
       <c r="F43" t="n">
-        <v>113.7763725008939</v>
+        <v>113.776372500894</v>
       </c>
       <c r="G43" t="n">
         <v>134.042187557545</v>
       </c>
       <c r="H43" t="n">
-        <v>110.0968086150281</v>
+        <v>110.0968086150282</v>
       </c>
       <c r="I43" t="n">
-        <v>54.51473894591869</v>
+        <v>54.51473894591874</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.0472693521972</v>
+        <v>42.04726935219725</v>
       </c>
       <c r="S43" t="n">
-        <v>152.2174597276065</v>
+        <v>152.2174597276066</v>
       </c>
       <c r="T43" t="n">
-        <v>186.4560534419549</v>
+        <v>186.456053441954</v>
       </c>
       <c r="U43" t="n">
-        <v>254.5486747646966</v>
+        <v>254.5486747646967</v>
       </c>
       <c r="V43" t="n">
         <v>220.4929678017907</v>
@@ -3961,10 +3961,10 @@
         <v>254.8783228145537</v>
       </c>
       <c r="X43" t="n">
-        <v>194.0649798669998</v>
+        <v>194.0649798669999</v>
       </c>
       <c r="Y43" t="n">
-        <v>186.9399778300574</v>
+        <v>186.9399778300575</v>
       </c>
     </row>
     <row r="44">
@@ -3986,7 +3986,7 @@
         <v>350.2856945502244</v>
       </c>
       <c r="F44" t="n">
-        <v>375.2313702196741</v>
+        <v>373.6385432801049</v>
       </c>
       <c r="G44" t="n">
         <v>378.5214299963334</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32439243794201</v>
+        <v>60.32439243794207</v>
       </c>
       <c r="T44" t="n">
         <v>168.9655674762584</v>
@@ -4043,7 +4043,7 @@
         <v>338.0864251564317</v>
       </c>
       <c r="Y44" t="n">
-        <v>353.000436194448</v>
+        <v>354.5932631340162</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>85.69226183416023</v>
       </c>
       <c r="I45" t="n">
-        <v>4.897501771871276</v>
+        <v>4.897501771871291</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>134.042187557545</v>
       </c>
       <c r="H46" t="n">
-        <v>110.0968086150281</v>
+        <v>110.0968086150288</v>
       </c>
       <c r="I46" t="n">
-        <v>54.5147389459187</v>
+        <v>54.51473894591871</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04726935219721</v>
+        <v>42.04726935219723</v>
       </c>
       <c r="S46" t="n">
         <v>152.2174597276065</v>
@@ -4189,7 +4189,7 @@
         <v>186.4560534419539</v>
       </c>
       <c r="U46" t="n">
-        <v>254.5486747646967</v>
+        <v>254.5486747646966</v>
       </c>
       <c r="V46" t="n">
         <v>220.4929678017907</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13.57908290142604</v>
+        <v>13.57908290142676</v>
       </c>
       <c r="C5" t="n">
-        <v>13.57908290142604</v>
+        <v>13.57908290142676</v>
       </c>
       <c r="D5" t="n">
-        <v>13.57908290142604</v>
+        <v>13.57908290142676</v>
       </c>
       <c r="E5" t="n">
-        <v>13.57908290142604</v>
+        <v>13.57908290142676</v>
       </c>
       <c r="F5" t="n">
-        <v>7.048165769151108</v>
+        <v>7.04816576915148</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5172486368761747</v>
+        <v>0.517248636876202</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5172486368761747</v>
+        <v>0.517248636876202</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5172486368761747</v>
+        <v>0.517248636876202</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5172486368761747</v>
+        <v>6.659576199781103</v>
       </c>
       <c r="K5" t="n">
-        <v>6.659576199780748</v>
+        <v>6.659576199781103</v>
       </c>
       <c r="L5" t="n">
-        <v>13.06052808112341</v>
+        <v>6.659576199781103</v>
       </c>
       <c r="M5" t="n">
-        <v>13.06052808112341</v>
+        <v>13.0605280811241</v>
       </c>
       <c r="N5" t="n">
-        <v>13.06052808112341</v>
+        <v>19.4614799624671</v>
       </c>
       <c r="O5" t="n">
-        <v>19.46147996246607</v>
+        <v>25.8624318438101</v>
       </c>
       <c r="P5" t="n">
-        <v>19.46147996246607</v>
+        <v>25.8624318438101</v>
       </c>
       <c r="Q5" t="n">
-        <v>25.86243184380874</v>
+        <v>25.8624318438101</v>
       </c>
       <c r="R5" t="n">
-        <v>25.86243184380874</v>
+        <v>25.8624318438101</v>
       </c>
       <c r="S5" t="n">
-        <v>25.86243184380874</v>
+        <v>25.8624318438101</v>
       </c>
       <c r="T5" t="n">
-        <v>25.86243184380874</v>
+        <v>19.33151471153482</v>
       </c>
       <c r="U5" t="n">
-        <v>19.3315147115338</v>
+        <v>13.57908290142676</v>
       </c>
       <c r="V5" t="n">
-        <v>19.3315147115338</v>
+        <v>13.57908290142676</v>
       </c>
       <c r="W5" t="n">
-        <v>19.3315147115338</v>
+        <v>13.57908290142676</v>
       </c>
       <c r="X5" t="n">
-        <v>19.3315147115338</v>
+        <v>13.57908290142676</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.3315147115338</v>
+        <v>13.57908290142676</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.269680446983936</v>
+        <v>0.517248636876202</v>
       </c>
       <c r="C6" t="n">
-        <v>6.269680446983936</v>
+        <v>0.517248636876202</v>
       </c>
       <c r="D6" t="n">
-        <v>6.269680446983936</v>
+        <v>0.517248636876202</v>
       </c>
       <c r="E6" t="n">
-        <v>6.269680446983936</v>
+        <v>0.517248636876202</v>
       </c>
       <c r="F6" t="n">
-        <v>6.269680446983936</v>
+        <v>0.517248636876202</v>
       </c>
       <c r="G6" t="n">
-        <v>6.269680446983936</v>
+        <v>0.517248636876202</v>
       </c>
       <c r="H6" t="n">
-        <v>6.269680446983936</v>
+        <v>0.517248636876202</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5172486368761747</v>
+        <v>0.517248636876202</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5172486368761747</v>
+        <v>0.517248636876202</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5172486368761747</v>
+        <v>0.517248636876202</v>
       </c>
       <c r="L6" t="n">
-        <v>6.659576199780747</v>
+        <v>6.659576199781098</v>
       </c>
       <c r="M6" t="n">
-        <v>13.06052808112341</v>
+        <v>13.0605280811241</v>
       </c>
       <c r="N6" t="n">
-        <v>19.46147996246607</v>
+        <v>19.4614799624671</v>
       </c>
       <c r="O6" t="n">
-        <v>25.86243184380874</v>
+        <v>25.8624318438101</v>
       </c>
       <c r="P6" t="n">
-        <v>25.86243184380874</v>
+        <v>25.8624318438101</v>
       </c>
       <c r="Q6" t="n">
-        <v>25.86243184380874</v>
+        <v>25.8624318438101</v>
       </c>
       <c r="R6" t="n">
-        <v>25.86243184380874</v>
+        <v>20.11000003370204</v>
       </c>
       <c r="S6" t="n">
-        <v>25.86243184380874</v>
+        <v>13.57908290142676</v>
       </c>
       <c r="T6" t="n">
-        <v>19.3315147115338</v>
+        <v>13.57908290142676</v>
       </c>
       <c r="U6" t="n">
-        <v>19.3315147115338</v>
+        <v>13.57908290142676</v>
       </c>
       <c r="V6" t="n">
-        <v>12.80059757925887</v>
+        <v>7.04816576915148</v>
       </c>
       <c r="W6" t="n">
-        <v>12.80059757925887</v>
+        <v>7.04816576915148</v>
       </c>
       <c r="X6" t="n">
-        <v>12.80059757925887</v>
+        <v>7.04816576915148</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.269680446983936</v>
+        <v>0.517248636876202</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.269680446983936</v>
+        <v>0.517248636876202</v>
       </c>
       <c r="C7" t="n">
-        <v>6.269680446983936</v>
+        <v>0.517248636876202</v>
       </c>
       <c r="D7" t="n">
-        <v>6.269680446983936</v>
+        <v>0.517248636876202</v>
       </c>
       <c r="E7" t="n">
-        <v>6.269680446983936</v>
+        <v>0.517248636876202</v>
       </c>
       <c r="F7" t="n">
-        <v>6.269680446983936</v>
+        <v>0.517248636876202</v>
       </c>
       <c r="G7" t="n">
-        <v>6.269680446983936</v>
+        <v>0.517248636876202</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5172486368761747</v>
+        <v>0.517248636876202</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5172486368761747</v>
+        <v>0.517248636876202</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5172486368761747</v>
+        <v>0.517248636876202</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5172486368761747</v>
+        <v>6.918200518219201</v>
       </c>
       <c r="L7" t="n">
-        <v>6.918200518218836</v>
+        <v>6.918200518219201</v>
       </c>
       <c r="M7" t="n">
-        <v>6.918200518218836</v>
+        <v>13.0605280811241</v>
       </c>
       <c r="N7" t="n">
-        <v>13.3191523995615</v>
+        <v>19.4614799624671</v>
       </c>
       <c r="O7" t="n">
-        <v>19.72010428090416</v>
+        <v>19.4614799624671</v>
       </c>
       <c r="P7" t="n">
-        <v>25.86243184380874</v>
+        <v>25.8624318438101</v>
       </c>
       <c r="Q7" t="n">
-        <v>25.86243184380874</v>
+        <v>19.33151471153482</v>
       </c>
       <c r="R7" t="n">
-        <v>25.86243184380874</v>
+        <v>12.80059757925955</v>
       </c>
       <c r="S7" t="n">
-        <v>25.86243184380874</v>
+        <v>12.80059757925955</v>
       </c>
       <c r="T7" t="n">
-        <v>25.86243184380874</v>
+        <v>7.04816576915148</v>
       </c>
       <c r="U7" t="n">
-        <v>19.3315147115338</v>
+        <v>0.517248636876202</v>
       </c>
       <c r="V7" t="n">
-        <v>12.80059757925887</v>
+        <v>0.517248636876202</v>
       </c>
       <c r="W7" t="n">
-        <v>12.80059757925887</v>
+        <v>0.517248636876202</v>
       </c>
       <c r="X7" t="n">
-        <v>12.80059757925887</v>
+        <v>0.517248636876202</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.269680446983936</v>
+        <v>0.517248636876202</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="C8" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="D8" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="E8" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F8" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G8" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H8" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I8" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="J8" t="n">
-        <v>7.082327113962777</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="K8" t="n">
-        <v>7.082327113962777</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="L8" t="n">
-        <v>7.082327113962777</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="M8" t="n">
-        <v>7.082327113962777</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="N8" t="n">
-        <v>13.8896123982571</v>
+        <v>25.48860325378633</v>
       </c>
       <c r="O8" t="n">
-        <v>13.8896123982571</v>
+        <v>25.48860325378633</v>
       </c>
       <c r="P8" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q8" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R8" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S8" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T8" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U8" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="V8" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="W8" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="X8" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="Y8" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C9" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D9" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E9" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G9" t="n">
         <v>0.5500836593369149</v>
@@ -4905,28 +4905,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T9" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="U9" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V9" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="W9" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="X9" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="10">
@@ -4945,10 +4945,10 @@
         <v>6.667680719235332</v>
       </c>
       <c r="E10" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F10" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G10" t="n">
         <v>0.5500836593369149</v>
@@ -4966,16 +4966,16 @@
         <v>7.082327113962777</v>
       </c>
       <c r="L10" t="n">
-        <v>7.082327113962777</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="M10" t="n">
         <v>13.8896123982571</v>
       </c>
       <c r="N10" t="n">
-        <v>13.8896123982571</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O10" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P10" t="n">
         <v>27.50418296684575</v>
@@ -4990,19 +4990,19 @@
         <v>20.55868221764227</v>
       </c>
       <c r="T10" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="U10" t="n">
-        <v>20.55868221764227</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="V10" t="n">
-        <v>13.6131814684388</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="W10" t="n">
-        <v>13.6131814684388</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="X10" t="n">
-        <v>13.6131814684388</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="Y10" t="n">
         <v>6.667680719235332</v>
@@ -5027,16 +5027,16 @@
         <v>1104.108058254332</v>
       </c>
       <c r="F11" t="n">
-        <v>725.0864721738534</v>
+        <v>725.0864721738533</v>
       </c>
       <c r="G11" t="n">
-        <v>342.7415933896782</v>
+        <v>342.7415933896781</v>
       </c>
       <c r="H11" t="n">
-        <v>84.9389730292057</v>
+        <v>84.93897302920574</v>
       </c>
       <c r="I11" t="n">
-        <v>84.9389730292057</v>
+        <v>84.93897302920574</v>
       </c>
       <c r="J11" t="n">
         <v>337.3090952838047</v>
@@ -5048,43 +5048,43 @@
         <v>1335.369319054891</v>
       </c>
       <c r="M11" t="n">
-        <v>2000.254704930708</v>
+        <v>2000.254704930709</v>
       </c>
       <c r="N11" t="n">
-        <v>2680.512439845098</v>
+        <v>2680.512439845099</v>
       </c>
       <c r="O11" t="n">
-        <v>3309.525267838997</v>
+        <v>3309.525267838998</v>
       </c>
       <c r="P11" t="n">
-        <v>3811.872162946732</v>
+        <v>3811.872162946733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4140.941013826199</v>
+        <v>4140.941013826201</v>
       </c>
       <c r="R11" t="n">
-        <v>4246.948651460285</v>
+        <v>4246.948651460287</v>
       </c>
       <c r="S11" t="n">
-        <v>4187.623837825566</v>
+        <v>4186.014921724992</v>
       </c>
       <c r="T11" t="n">
-        <v>4016.951547445507</v>
+        <v>4015.342631344933</v>
       </c>
       <c r="U11" t="n">
-        <v>3795.446449641408</v>
+        <v>3793.837533540834</v>
       </c>
       <c r="V11" t="n">
-        <v>3496.347881006966</v>
+        <v>3494.738964906392</v>
       </c>
       <c r="W11" t="n">
-        <v>3175.54354444598</v>
+        <v>3173.934628345406</v>
       </c>
       <c r="X11" t="n">
-        <v>2834.042104894029</v>
+        <v>2832.433188793455</v>
       </c>
       <c r="Y11" t="n">
-        <v>2475.867091627346</v>
+        <v>2474.258175526772</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.4437847524699</v>
       </c>
       <c r="H12" t="n">
-        <v>89.88594451594439</v>
+        <v>89.8859445159444</v>
       </c>
       <c r="I12" t="n">
-        <v>84.9389730292057</v>
+        <v>84.93897302920574</v>
       </c>
       <c r="J12" t="n">
-        <v>84.9389730292057</v>
+        <v>216.4310419786324</v>
       </c>
       <c r="K12" t="n">
-        <v>387.834687337299</v>
+        <v>519.3267562867259</v>
       </c>
       <c r="L12" t="n">
-        <v>841.4378960325071</v>
+        <v>972.9299649819341</v>
       </c>
       <c r="M12" t="n">
-        <v>1390.128313670932</v>
+        <v>1429.102321861779</v>
       </c>
       <c r="N12" t="n">
-        <v>1967.7495789007</v>
+        <v>1429.102321861779</v>
       </c>
       <c r="O12" t="n">
-        <v>2473.940393913297</v>
+        <v>1935.293136874376</v>
       </c>
       <c r="P12" t="n">
-        <v>2555.664977518291</v>
+        <v>2322.222826249259</v>
       </c>
       <c r="Q12" t="n">
-        <v>2555.664977518291</v>
+        <v>2530.955880272499</v>
       </c>
       <c r="R12" t="n">
         <v>2555.664977518291</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>872.608001126865</v>
+        <v>872.6080011268656</v>
       </c>
       <c r="C13" t="n">
-        <v>735.6361369080867</v>
+        <v>735.6361369080873</v>
       </c>
       <c r="D13" t="n">
-        <v>617.4838162048795</v>
+        <v>617.4838162048803</v>
       </c>
       <c r="E13" t="n">
-        <v>501.535041331615</v>
+        <v>501.5350413316158</v>
       </c>
       <c r="F13" t="n">
-        <v>386.6094125428333</v>
+        <v>386.6094125428339</v>
       </c>
       <c r="G13" t="n">
-        <v>251.213263494808</v>
+        <v>251.2132634948086</v>
       </c>
       <c r="H13" t="n">
-        <v>140.0043659038705</v>
+        <v>140.0043659038711</v>
       </c>
       <c r="I13" t="n">
-        <v>84.9389730292057</v>
+        <v>84.93897302920574</v>
       </c>
       <c r="J13" t="n">
-        <v>185.1136241879148</v>
+        <v>185.1136241879146</v>
       </c>
       <c r="K13" t="n">
         <v>459.414510443475</v>
       </c>
       <c r="L13" t="n">
-        <v>857.1905228407118</v>
+        <v>857.1905228407119</v>
       </c>
       <c r="M13" t="n">
         <v>1285.275682769748</v>
@@ -5212,22 +5212,22 @@
         <v>1709.361466092945</v>
       </c>
       <c r="O13" t="n">
-        <v>2087.448570630398</v>
+        <v>2087.448570630399</v>
       </c>
       <c r="P13" t="n">
-        <v>2391.968239837008</v>
+        <v>2391.968239837009</v>
       </c>
       <c r="Q13" t="n">
-        <v>2529.004981187225</v>
+        <v>2529.004981187226</v>
       </c>
       <c r="R13" t="n">
-        <v>2486.532991942581</v>
+        <v>2486.532991942583</v>
       </c>
       <c r="S13" t="n">
-        <v>2332.777982116716</v>
+        <v>2332.777982116717</v>
       </c>
       <c r="T13" t="n">
-        <v>2144.43853419555</v>
+        <v>2144.438534195552</v>
       </c>
       <c r="U13" t="n">
         <v>1887.318660695857</v>
@@ -5236,13 +5236,13 @@
         <v>1664.598491199099</v>
       </c>
       <c r="W13" t="n">
-        <v>1407.145639871266</v>
+        <v>1407.145639871267</v>
       </c>
       <c r="X13" t="n">
         <v>1211.120407682378</v>
       </c>
       <c r="Y13" t="n">
-        <v>1022.292147247976</v>
+        <v>1022.292147247977</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2119.622654171777</v>
+        <v>2119.622654171779</v>
       </c>
       <c r="C14" t="n">
-        <v>1782.624455940494</v>
+        <v>1782.624455940496</v>
       </c>
       <c r="D14" t="n">
-        <v>1456.323076042872</v>
+        <v>1456.323076042874</v>
       </c>
       <c r="E14" t="n">
-        <v>1102.499142153756</v>
+        <v>1102.499142153758</v>
       </c>
       <c r="F14" t="n">
-        <v>723.4775560732774</v>
+        <v>725.0864721738535</v>
       </c>
       <c r="G14" t="n">
         <v>342.7415933896782</v>
       </c>
       <c r="H14" t="n">
-        <v>84.9389730292057</v>
+        <v>84.93897302920574</v>
       </c>
       <c r="I14" t="n">
-        <v>84.9389730292057</v>
+        <v>84.93897302920574</v>
       </c>
       <c r="J14" t="n">
-        <v>337.3090952838056</v>
+        <v>337.3090952838057</v>
       </c>
       <c r="K14" t="n">
-        <v>766.2850065840953</v>
+        <v>766.2850065840947</v>
       </c>
       <c r="L14" t="n">
         <v>1335.369319054892</v>
@@ -5291,37 +5291,37 @@
         <v>2680.512439845099</v>
       </c>
       <c r="O14" t="n">
-        <v>3309.525267838997</v>
+        <v>3309.525267838998</v>
       </c>
       <c r="P14" t="n">
-        <v>3811.872162946732</v>
+        <v>3811.872162946734</v>
       </c>
       <c r="Q14" t="n">
-        <v>4140.941013826199</v>
+        <v>4140.941013826201</v>
       </c>
       <c r="R14" t="n">
-        <v>4246.948651460285</v>
+        <v>4246.948651460287</v>
       </c>
       <c r="S14" t="n">
-        <v>4186.01492172499</v>
+        <v>4186.014921724992</v>
       </c>
       <c r="T14" t="n">
-        <v>4015.342631344931</v>
+        <v>4015.342631344933</v>
       </c>
       <c r="U14" t="n">
-        <v>3793.837533540832</v>
+        <v>3793.837533540834</v>
       </c>
       <c r="V14" t="n">
-        <v>3494.73896490639</v>
+        <v>3494.738964906392</v>
       </c>
       <c r="W14" t="n">
-        <v>3173.934628345404</v>
+        <v>3173.934628345406</v>
       </c>
       <c r="X14" t="n">
-        <v>2832.433188793453</v>
+        <v>2832.433188793455</v>
       </c>
       <c r="Y14" t="n">
-        <v>2474.25817552677</v>
+        <v>2474.258175526772</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>176.4437847524699</v>
       </c>
       <c r="H15" t="n">
-        <v>89.88594451594439</v>
+        <v>89.8859445159444</v>
       </c>
       <c r="I15" t="n">
-        <v>84.9389730292057</v>
+        <v>84.93897302920574</v>
       </c>
       <c r="J15" t="n">
-        <v>84.9389730292057</v>
+        <v>216.4310419786324</v>
       </c>
       <c r="K15" t="n">
-        <v>84.9389730292057</v>
+        <v>260.8262169190526</v>
       </c>
       <c r="L15" t="n">
-        <v>327.4997362393779</v>
+        <v>714.4294256142608</v>
       </c>
       <c r="M15" t="n">
-        <v>876.190153877803</v>
+        <v>1263.119843252686</v>
       </c>
       <c r="N15" t="n">
-        <v>1453.811419107571</v>
+        <v>1840.741108482455</v>
       </c>
       <c r="O15" t="n">
-        <v>1960.002234120168</v>
+        <v>2346.931923495052</v>
       </c>
       <c r="P15" t="n">
         <v>2346.931923495052</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>872.6080011268655</v>
+        <v>872.6080011268652</v>
       </c>
       <c r="C16" t="n">
-        <v>735.6361369080871</v>
+        <v>735.6361369080869</v>
       </c>
       <c r="D16" t="n">
-        <v>617.48381620488</v>
+        <v>617.4838162048798</v>
       </c>
       <c r="E16" t="n">
-        <v>501.5350413316154</v>
+        <v>501.5350413316152</v>
       </c>
       <c r="F16" t="n">
-        <v>386.6094125428337</v>
+        <v>386.6094125428334</v>
       </c>
       <c r="G16" t="n">
-        <v>251.2132634948084</v>
+        <v>251.2132634948081</v>
       </c>
       <c r="H16" t="n">
-        <v>140.0043659038709</v>
+        <v>140.0043659038705</v>
       </c>
       <c r="I16" t="n">
-        <v>84.9389730292057</v>
+        <v>84.93897302920574</v>
       </c>
       <c r="J16" t="n">
-        <v>185.1136241879148</v>
+        <v>185.1136241879149</v>
       </c>
       <c r="K16" t="n">
-        <v>459.414510443475</v>
+        <v>459.4145104434754</v>
       </c>
       <c r="L16" t="n">
-        <v>857.1905228407118</v>
+        <v>857.1905228407122</v>
       </c>
       <c r="M16" t="n">
         <v>1285.275682769748</v>
@@ -5449,22 +5449,22 @@
         <v>1709.361466092945</v>
       </c>
       <c r="O16" t="n">
-        <v>2087.448570630398</v>
+        <v>2087.448570630399</v>
       </c>
       <c r="P16" t="n">
-        <v>2391.968239837008</v>
+        <v>2391.968239837009</v>
       </c>
       <c r="Q16" t="n">
         <v>2529.004981187225</v>
       </c>
       <c r="R16" t="n">
-        <v>2486.532991942581</v>
+        <v>2486.532991942582</v>
       </c>
       <c r="S16" t="n">
         <v>2332.777982116716</v>
       </c>
       <c r="T16" t="n">
-        <v>2144.43853419555</v>
+        <v>2144.438534195551</v>
       </c>
       <c r="U16" t="n">
         <v>1887.318660695857</v>
@@ -5479,7 +5479,7 @@
         <v>1211.120407682378</v>
       </c>
       <c r="Y16" t="n">
-        <v>1022.292147247977</v>
+        <v>1022.292147247976</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2120.542034800676</v>
+        <v>2120.542034800678</v>
       </c>
       <c r="C17" t="n">
-        <v>1783.658759148006</v>
+        <v>1783.658759148007</v>
       </c>
       <c r="D17" t="n">
-        <v>1457.472301828996</v>
+        <v>1457.472301828998</v>
       </c>
       <c r="E17" t="n">
-        <v>1103.763290518494</v>
+        <v>1103.763290518495</v>
       </c>
       <c r="F17" t="n">
-        <v>724.8566270166275</v>
+        <v>724.8566270166284</v>
       </c>
       <c r="G17" t="n">
-        <v>342.6266708110655</v>
+        <v>342.6266708110657</v>
       </c>
       <c r="H17" t="n">
-        <v>84.9389730292057</v>
+        <v>84.93897302920574</v>
       </c>
       <c r="I17" t="n">
-        <v>84.9389730292057</v>
+        <v>84.93897302920574</v>
       </c>
       <c r="J17" t="n">
-        <v>337.3090952838056</v>
+        <v>337.3090952838047</v>
       </c>
       <c r="K17" t="n">
-        <v>766.2850065840953</v>
+        <v>766.2850065840939</v>
       </c>
       <c r="L17" t="n">
-        <v>1335.369319054893</v>
+        <v>1335.369319054891</v>
       </c>
       <c r="M17" t="n">
-        <v>2000.25470493071</v>
+        <v>2000.254704930708</v>
       </c>
       <c r="N17" t="n">
-        <v>2680.5124398451</v>
+        <v>2680.512439845098</v>
       </c>
       <c r="O17" t="n">
         <v>3309.525267838998</v>
       </c>
       <c r="P17" t="n">
-        <v>3811.872162946733</v>
+        <v>3811.872162946734</v>
       </c>
       <c r="Q17" t="n">
-        <v>4140.9410138262</v>
+        <v>4140.941013826201</v>
       </c>
       <c r="R17" t="n">
-        <v>4246.948651460285</v>
+        <v>4246.948651460287</v>
       </c>
       <c r="S17" t="n">
-        <v>4186.129844303601</v>
+        <v>4186.129844303604</v>
       </c>
       <c r="T17" t="n">
-        <v>4015.572476502155</v>
+        <v>4015.572476502157</v>
       </c>
       <c r="U17" t="n">
-        <v>3794.182301276668</v>
+        <v>3794.182301276671</v>
       </c>
       <c r="V17" t="n">
-        <v>3495.198655220839</v>
+        <v>3495.198655220841</v>
       </c>
       <c r="W17" t="n">
-        <v>3174.509241238466</v>
+        <v>3174.509241238468</v>
       </c>
       <c r="X17" t="n">
-        <v>2833.122724265127</v>
+        <v>2833.122724265129</v>
       </c>
       <c r="Y17" t="n">
-        <v>2475.062633577057</v>
+        <v>2475.062633577059</v>
       </c>
     </row>
     <row r="18">
@@ -5586,22 +5586,22 @@
         <v>176.4437847524699</v>
       </c>
       <c r="H18" t="n">
-        <v>89.88594451594439</v>
+        <v>89.8859445159444</v>
       </c>
       <c r="I18" t="n">
-        <v>84.9389730292057</v>
+        <v>84.93897302920574</v>
       </c>
       <c r="J18" t="n">
-        <v>84.9389730292057</v>
+        <v>216.4310419786324</v>
       </c>
       <c r="K18" t="n">
-        <v>387.834687337299</v>
+        <v>216.4310419786324</v>
       </c>
       <c r="L18" t="n">
-        <v>387.834687337299</v>
+        <v>302.7906389935849</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4810566320108</v>
+        <v>851.4810566320103</v>
       </c>
       <c r="N18" t="n">
         <v>1429.102321861779</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>871.8035430765772</v>
+        <v>871.8035430765781</v>
       </c>
       <c r="C19" t="n">
-        <v>734.9466014364115</v>
+        <v>734.9466014364123</v>
       </c>
       <c r="D19" t="n">
-        <v>616.909203311817</v>
+        <v>616.9092033118177</v>
       </c>
       <c r="E19" t="n">
-        <v>501.0753510171651</v>
+        <v>501.0753510171657</v>
       </c>
       <c r="F19" t="n">
-        <v>386.264644806996</v>
+        <v>386.2646448069964</v>
       </c>
       <c r="G19" t="n">
-        <v>250.9834183375833</v>
+        <v>250.9834183375837</v>
       </c>
       <c r="H19" t="n">
-        <v>139.8894433252585</v>
+        <v>139.8894433252586</v>
       </c>
       <c r="I19" t="n">
-        <v>84.9389730292057</v>
+        <v>84.93897302920574</v>
       </c>
       <c r="J19" t="n">
         <v>185.226259807213</v>
       </c>
       <c r="K19" t="n">
-        <v>459.6397816820715</v>
+        <v>459.6397816820714</v>
       </c>
       <c r="L19" t="n">
-        <v>854.7885834864194</v>
+        <v>857.5284296986064</v>
       </c>
       <c r="M19" t="n">
-        <v>1282.986379034754</v>
+        <v>1285.726225246941</v>
       </c>
       <c r="N19" t="n">
-        <v>1707.184797977249</v>
+        <v>1709.924644189436</v>
       </c>
       <c r="O19" t="n">
-        <v>2085.384538134</v>
+        <v>2085.384538134002</v>
       </c>
       <c r="P19" t="n">
-        <v>2390.016842959908</v>
+        <v>2390.01684295991</v>
       </c>
       <c r="Q19" t="n">
-        <v>2527.166219929424</v>
+        <v>2527.166219929426</v>
       </c>
       <c r="R19" t="n">
-        <v>2484.809153263393</v>
+        <v>2484.809153263394</v>
       </c>
       <c r="S19" t="n">
-        <v>2331.16906601614</v>
+        <v>2331.169066016142</v>
       </c>
       <c r="T19" t="n">
-        <v>2142.944540673587</v>
+        <v>2142.944540673589</v>
       </c>
       <c r="U19" t="n">
-        <v>1885.939589752506</v>
+        <v>1885.939589752508</v>
       </c>
       <c r="V19" t="n">
-        <v>1663.33434283436</v>
+        <v>1663.334342834362</v>
       </c>
       <c r="W19" t="n">
-        <v>1405.996414085141</v>
+        <v>1405.996414085142</v>
       </c>
       <c r="X19" t="n">
-        <v>1210.086104474865</v>
+        <v>1210.086104474866</v>
       </c>
       <c r="Y19" t="n">
-        <v>1021.372766619076</v>
+        <v>1021.372766619077</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2120.542034800677</v>
+        <v>2120.542034800678</v>
       </c>
       <c r="C20" t="n">
-        <v>1783.658759148007</v>
+        <v>1783.658759148008</v>
       </c>
       <c r="D20" t="n">
         <v>1457.472301828998</v>
@@ -5738,43 +5738,43 @@
         <v>1103.763290518495</v>
       </c>
       <c r="F20" t="n">
-        <v>724.8566270166284</v>
+        <v>724.8566270166286</v>
       </c>
       <c r="G20" t="n">
-        <v>342.6266708110655</v>
+        <v>342.6266708110657</v>
       </c>
       <c r="H20" t="n">
-        <v>84.9389730292057</v>
+        <v>84.93897302920574</v>
       </c>
       <c r="I20" t="n">
-        <v>84.9389730292057</v>
+        <v>84.93897302920574</v>
       </c>
       <c r="J20" t="n">
-        <v>337.3090952838047</v>
+        <v>337.3090952838056</v>
       </c>
       <c r="K20" t="n">
-        <v>766.2850065840937</v>
+        <v>766.2850065840953</v>
       </c>
       <c r="L20" t="n">
-        <v>1335.369319054891</v>
+        <v>1335.369319054892</v>
       </c>
       <c r="M20" t="n">
-        <v>2000.254704930708</v>
+        <v>2000.254704930709</v>
       </c>
       <c r="N20" t="n">
-        <v>2680.512439845098</v>
+        <v>2680.5124398451</v>
       </c>
       <c r="O20" t="n">
-        <v>3309.525267838997</v>
+        <v>3309.525267838999</v>
       </c>
       <c r="P20" t="n">
-        <v>3811.872162946733</v>
+        <v>3811.872162946734</v>
       </c>
       <c r="Q20" t="n">
-        <v>4140.9410138262</v>
+        <v>4140.941013826201</v>
       </c>
       <c r="R20" t="n">
-        <v>4246.948651460285</v>
+        <v>4246.948651460287</v>
       </c>
       <c r="S20" t="n">
         <v>4186.129844303603</v>
@@ -5783,19 +5783,19 @@
         <v>4015.572476502156</v>
       </c>
       <c r="U20" t="n">
-        <v>3794.182301276669</v>
+        <v>3794.182301276671</v>
       </c>
       <c r="V20" t="n">
-        <v>3495.19865522084</v>
+        <v>3495.198655220841</v>
       </c>
       <c r="W20" t="n">
-        <v>3174.509241238467</v>
+        <v>3174.509241238468</v>
       </c>
       <c r="X20" t="n">
-        <v>2833.122724265128</v>
+        <v>2833.122724265129</v>
       </c>
       <c r="Y20" t="n">
-        <v>2475.062633577058</v>
+        <v>2475.062633577059</v>
       </c>
     </row>
     <row r="21">
@@ -5823,25 +5823,25 @@
         <v>176.4437847524699</v>
       </c>
       <c r="H21" t="n">
-        <v>89.88594451594436</v>
+        <v>89.8859445159444</v>
       </c>
       <c r="I21" t="n">
-        <v>84.9389730292057</v>
+        <v>84.93897302920574</v>
       </c>
       <c r="J21" t="n">
-        <v>216.4310419786324</v>
+        <v>84.93897302920574</v>
       </c>
       <c r="K21" t="n">
-        <v>302.7906389935849</v>
+        <v>387.8346873372992</v>
       </c>
       <c r="L21" t="n">
-        <v>302.7906389935849</v>
+        <v>841.4378960325075</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4810566320103</v>
+        <v>1390.128313670933</v>
       </c>
       <c r="N21" t="n">
-        <v>1429.102321861779</v>
+        <v>1935.293136874376</v>
       </c>
       <c r="O21" t="n">
         <v>1935.293136874376</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>871.8035430765772</v>
+        <v>871.8035430765781</v>
       </c>
       <c r="C22" t="n">
-        <v>734.9466014364115</v>
+        <v>734.9466014364123</v>
       </c>
       <c r="D22" t="n">
-        <v>616.909203311817</v>
+        <v>616.9092033118177</v>
       </c>
       <c r="E22" t="n">
-        <v>501.0753510171651</v>
+        <v>501.0753510171657</v>
       </c>
       <c r="F22" t="n">
-        <v>386.264644806996</v>
+        <v>386.2646448069964</v>
       </c>
       <c r="G22" t="n">
-        <v>250.9834183375833</v>
+        <v>250.9834183375837</v>
       </c>
       <c r="H22" t="n">
-        <v>139.8894433252585</v>
+        <v>139.8894433252586</v>
       </c>
       <c r="I22" t="n">
-        <v>84.9389730292057</v>
+        <v>84.93897302920574</v>
       </c>
       <c r="J22" t="n">
-        <v>185.2262598072131</v>
+        <v>185.226259807213</v>
       </c>
       <c r="K22" t="n">
-        <v>459.6397816820717</v>
+        <v>456.8999354698863</v>
       </c>
       <c r="L22" t="n">
-        <v>854.7885834864188</v>
+        <v>854.7885834864212</v>
       </c>
       <c r="M22" t="n">
-        <v>1282.986379034753</v>
+        <v>1282.986379034756</v>
       </c>
       <c r="N22" t="n">
-        <v>1707.184797977248</v>
+        <v>1707.18479797725</v>
       </c>
       <c r="O22" t="n">
-        <v>2085.384538134</v>
+        <v>2085.384538134002</v>
       </c>
       <c r="P22" t="n">
-        <v>2390.016842959908</v>
+        <v>2390.01684295991</v>
       </c>
       <c r="Q22" t="n">
-        <v>2527.166219929424</v>
+        <v>2527.166219929426</v>
       </c>
       <c r="R22" t="n">
-        <v>2484.809153263393</v>
+        <v>2484.809153263394</v>
       </c>
       <c r="S22" t="n">
-        <v>2331.16906601614</v>
+        <v>2331.169066016142</v>
       </c>
       <c r="T22" t="n">
-        <v>2142.944540673587</v>
+        <v>2142.944540673589</v>
       </c>
       <c r="U22" t="n">
-        <v>1885.939589752506</v>
+        <v>1885.939589752508</v>
       </c>
       <c r="V22" t="n">
-        <v>1663.33434283436</v>
+        <v>1663.334342834362</v>
       </c>
       <c r="W22" t="n">
-        <v>1405.996414085141</v>
+        <v>1405.996414085142</v>
       </c>
       <c r="X22" t="n">
-        <v>1210.086104474865</v>
+        <v>1210.086104474866</v>
       </c>
       <c r="Y22" t="n">
-        <v>1021.372766619076</v>
+        <v>1021.372766619077</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2120.542034800678</v>
+        <v>2120.542034800679</v>
       </c>
       <c r="C23" t="n">
         <v>1783.658759148008</v>
@@ -5978,58 +5978,58 @@
         <v>724.8566270166292</v>
       </c>
       <c r="G23" t="n">
-        <v>342.6266708110655</v>
+        <v>342.6266708110657</v>
       </c>
       <c r="H23" t="n">
-        <v>84.9389730292057</v>
+        <v>84.93897302920574</v>
       </c>
       <c r="I23" t="n">
-        <v>84.9389730292057</v>
+        <v>84.93897302920574</v>
       </c>
       <c r="J23" t="n">
-        <v>337.3090952838043</v>
+        <v>337.3090952838047</v>
       </c>
       <c r="K23" t="n">
-        <v>766.2850065840933</v>
+        <v>766.2850065840947</v>
       </c>
       <c r="L23" t="n">
-        <v>1335.369319054891</v>
+        <v>1335.369319054892</v>
       </c>
       <c r="M23" t="n">
-        <v>2000.254704930708</v>
+        <v>2000.254704930709</v>
       </c>
       <c r="N23" t="n">
-        <v>2680.512439845098</v>
+        <v>2680.512439845099</v>
       </c>
       <c r="O23" t="n">
-        <v>3309.525267838997</v>
+        <v>3309.525267838998</v>
       </c>
       <c r="P23" t="n">
-        <v>3811.872162946732</v>
+        <v>3811.872162946734</v>
       </c>
       <c r="Q23" t="n">
-        <v>4140.941013826199</v>
+        <v>4140.941013826201</v>
       </c>
       <c r="R23" t="n">
-        <v>4246.948651460285</v>
+        <v>4246.948651460287</v>
       </c>
       <c r="S23" t="n">
-        <v>4186.129844303603</v>
+        <v>4186.129844303604</v>
       </c>
       <c r="T23" t="n">
-        <v>4015.572476502156</v>
+        <v>4015.572476502158</v>
       </c>
       <c r="U23" t="n">
-        <v>3794.18230127667</v>
+        <v>3794.182301276671</v>
       </c>
       <c r="V23" t="n">
-        <v>3495.198655220841</v>
+        <v>3495.198655220842</v>
       </c>
       <c r="W23" t="n">
-        <v>3174.509241238468</v>
+        <v>3174.509241238469</v>
       </c>
       <c r="X23" t="n">
-        <v>2833.122724265129</v>
+        <v>2833.12272426513</v>
       </c>
       <c r="Y23" t="n">
         <v>2475.062633577059</v>
@@ -6060,31 +6060,31 @@
         <v>176.4437847524699</v>
       </c>
       <c r="H24" t="n">
-        <v>89.88594451594436</v>
+        <v>89.8859445159444</v>
       </c>
       <c r="I24" t="n">
-        <v>84.9389730292057</v>
+        <v>84.93897302920574</v>
       </c>
       <c r="J24" t="n">
-        <v>216.4310419786324</v>
+        <v>84.93897302920574</v>
       </c>
       <c r="K24" t="n">
-        <v>519.3267562867259</v>
+        <v>387.8346873372992</v>
       </c>
       <c r="L24" t="n">
-        <v>972.9299649819341</v>
+        <v>841.4378960325075</v>
       </c>
       <c r="M24" t="n">
-        <v>972.9299649819341</v>
+        <v>1390.128313670933</v>
       </c>
       <c r="N24" t="n">
-        <v>1550.551230211703</v>
+        <v>1429.102321861779</v>
       </c>
       <c r="O24" t="n">
-        <v>2056.7420452243</v>
+        <v>1935.293136874376</v>
       </c>
       <c r="P24" t="n">
-        <v>2443.671734599183</v>
+        <v>2322.222826249259</v>
       </c>
       <c r="Q24" t="n">
         <v>2530.955880272499</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>871.8035430765773</v>
+        <v>871.8035430765781</v>
       </c>
       <c r="C25" t="n">
-        <v>734.9466014364116</v>
+        <v>734.9466014364123</v>
       </c>
       <c r="D25" t="n">
-        <v>616.9092033118171</v>
+        <v>616.9092033118177</v>
       </c>
       <c r="E25" t="n">
-        <v>501.0753510171652</v>
+        <v>501.0753510171657</v>
       </c>
       <c r="F25" t="n">
-        <v>386.264644806996</v>
+        <v>386.2646448069964</v>
       </c>
       <c r="G25" t="n">
-        <v>250.9834183375834</v>
+        <v>250.9834183375837</v>
       </c>
       <c r="H25" t="n">
-        <v>139.8894433252585</v>
+        <v>139.8894433252586</v>
       </c>
       <c r="I25" t="n">
-        <v>84.9389730292057</v>
+        <v>84.93897302920574</v>
       </c>
       <c r="J25" t="n">
-        <v>185.2262598072131</v>
+        <v>185.226259807213</v>
       </c>
       <c r="K25" t="n">
-        <v>459.6397816820717</v>
+        <v>459.6397816820714</v>
       </c>
       <c r="L25" t="n">
-        <v>857.5284296986067</v>
+        <v>854.7885834864212</v>
       </c>
       <c r="M25" t="n">
-        <v>1282.986379034754</v>
+        <v>1282.986379034756</v>
       </c>
       <c r="N25" t="n">
-        <v>1707.184797977248</v>
+        <v>1707.18479797725</v>
       </c>
       <c r="O25" t="n">
-        <v>2085.384538134</v>
+        <v>2085.384538134002</v>
       </c>
       <c r="P25" t="n">
-        <v>2390.016842959908</v>
+        <v>2390.01684295991</v>
       </c>
       <c r="Q25" t="n">
-        <v>2527.166219929424</v>
+        <v>2527.166219929426</v>
       </c>
       <c r="R25" t="n">
-        <v>2484.809153263393</v>
+        <v>2484.809153263394</v>
       </c>
       <c r="S25" t="n">
-        <v>2331.16906601614</v>
+        <v>2331.169066016142</v>
       </c>
       <c r="T25" t="n">
-        <v>2142.944540673587</v>
+        <v>2142.944540673589</v>
       </c>
       <c r="U25" t="n">
-        <v>1885.939589752506</v>
+        <v>1885.939589752507</v>
       </c>
       <c r="V25" t="n">
-        <v>1663.33434283436</v>
+        <v>1663.334342834361</v>
       </c>
       <c r="W25" t="n">
-        <v>1405.996414085141</v>
+        <v>1405.996414085142</v>
       </c>
       <c r="X25" t="n">
-        <v>1210.086104474865</v>
+        <v>1210.086104474866</v>
       </c>
       <c r="Y25" t="n">
-        <v>1021.372766619076</v>
+        <v>1021.372766619077</v>
       </c>
     </row>
     <row r="26">
@@ -6203,16 +6203,16 @@
         <v>2121.264405294814</v>
       </c>
       <c r="C26" t="n">
-        <v>1784.26620706353</v>
+        <v>1784.266207063531</v>
       </c>
       <c r="D26" t="n">
-        <v>1457.964827165908</v>
+        <v>1457.964827165909</v>
       </c>
       <c r="E26" t="n">
-        <v>1104.140893276793</v>
+        <v>1104.140893276794</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1193071963137</v>
+        <v>725.1193071963148</v>
       </c>
       <c r="G26" t="n">
         <v>342.7744284121389</v>
@@ -6233,19 +6233,19 @@
         <v>1335.402154077352</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.896456053745</v>
+        <v>2000.287539953169</v>
       </c>
       <c r="N26" t="n">
-        <v>2682.154190968135</v>
+        <v>2680.545274867559</v>
       </c>
       <c r="O26" t="n">
-        <v>3311.167018962034</v>
+        <v>3309.558102861458</v>
       </c>
       <c r="P26" t="n">
-        <v>3813.513914069769</v>
+        <v>3811.904997969194</v>
       </c>
       <c r="Q26" t="n">
-        <v>4142.582764949237</v>
+        <v>4140.973848848661</v>
       </c>
       <c r="R26" t="n">
         <v>4248.590402583322</v>
@@ -6263,7 +6263,7 @@
         <v>3496.380716029427</v>
       </c>
       <c r="W26" t="n">
-        <v>3175.576379468441</v>
+        <v>3175.576379468442</v>
       </c>
       <c r="X26" t="n">
         <v>2834.07493991649</v>
@@ -6303,28 +6303,28 @@
         <v>84.97180805166646</v>
       </c>
       <c r="J27" t="n">
-        <v>216.4638770010931</v>
+        <v>84.97180805166646</v>
       </c>
       <c r="K27" t="n">
-        <v>519.3595913091866</v>
+        <v>387.86752235976</v>
       </c>
       <c r="L27" t="n">
-        <v>519.3595913091866</v>
+        <v>841.4707310549682</v>
       </c>
       <c r="M27" t="n">
-        <v>1068.050008947612</v>
+        <v>1390.161148693393</v>
       </c>
       <c r="N27" t="n">
-        <v>1645.67127417738</v>
+        <v>1429.13515688424</v>
       </c>
       <c r="O27" t="n">
-        <v>2151.862089189977</v>
+        <v>1935.325971896837</v>
       </c>
       <c r="P27" t="n">
-        <v>2538.791778564861</v>
+        <v>2322.25566127172</v>
       </c>
       <c r="Q27" t="n">
-        <v>2555.697812540752</v>
+        <v>2530.98871529496</v>
       </c>
       <c r="R27" t="n">
         <v>2555.697812540752</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.6408361493264</v>
+        <v>872.6408361493261</v>
       </c>
       <c r="C28" t="n">
-        <v>735.6689719305481</v>
+        <v>735.6689719305477</v>
       </c>
       <c r="D28" t="n">
-        <v>617.516651227341</v>
+        <v>617.5166512273406</v>
       </c>
       <c r="E28" t="n">
-        <v>501.5678763540765</v>
+        <v>501.5678763540761</v>
       </c>
       <c r="F28" t="n">
-        <v>386.6422475652947</v>
+        <v>386.6422475652944</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2460985172694</v>
+        <v>251.246098517269</v>
       </c>
       <c r="H28" t="n">
         <v>140.0372009263318</v>
@@ -6385,10 +6385,10 @@
         <v>185.1464592103756</v>
       </c>
       <c r="K28" t="n">
-        <v>459.4473454659359</v>
+        <v>459.447345465936</v>
       </c>
       <c r="L28" t="n">
-        <v>857.2233578631729</v>
+        <v>857.2233578631726</v>
       </c>
       <c r="M28" t="n">
         <v>1285.308517792209</v>
@@ -6403,31 +6403,31 @@
         <v>2392.00107485947</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.037816209687</v>
+        <v>2529.037816209686</v>
       </c>
       <c r="R28" t="n">
         <v>2486.565826965043</v>
       </c>
       <c r="S28" t="n">
-        <v>2332.810817139178</v>
+        <v>2332.810817139177</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.471369218012</v>
+        <v>2144.471369218011</v>
       </c>
       <c r="U28" t="n">
         <v>1887.351495718318</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.63132622156</v>
+        <v>1664.631326221559</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.178474893728</v>
+        <v>1407.178474893727</v>
       </c>
       <c r="X28" t="n">
         <v>1211.153242704839</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.324982270438</v>
+        <v>1022.324982270437</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2121.264405294814</v>
+        <v>2121.264405294813</v>
       </c>
       <c r="C29" t="n">
-        <v>1784.266207063531</v>
+        <v>1784.26620706353</v>
       </c>
       <c r="D29" t="n">
-        <v>1457.964827165909</v>
+        <v>1457.964827165908</v>
       </c>
       <c r="E29" t="n">
-        <v>1104.140893276794</v>
+        <v>1104.140893276792</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1193071963147</v>
+        <v>725.1193071963135</v>
       </c>
       <c r="G29" t="n">
         <v>342.7744284121389</v>
@@ -6476,10 +6476,10 @@
         <v>2680.545274867559</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.167018962034</v>
+        <v>3309.558102861458</v>
       </c>
       <c r="P29" t="n">
-        <v>3813.513914069769</v>
+        <v>3811.904997969194</v>
       </c>
       <c r="Q29" t="n">
         <v>4142.582764949237</v>
@@ -6491,22 +6491,22 @@
         <v>4187.656672848027</v>
       </c>
       <c r="T29" t="n">
-        <v>4016.984382467969</v>
+        <v>4016.984382467967</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.47928466387</v>
+        <v>3795.479284663868</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.380716029428</v>
+        <v>3496.380716029425</v>
       </c>
       <c r="W29" t="n">
-        <v>3175.576379468442</v>
+        <v>3175.57637946844</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.074939916491</v>
+        <v>2834.074939916488</v>
       </c>
       <c r="Y29" t="n">
-        <v>2475.899926649808</v>
+        <v>2475.899926649805</v>
       </c>
     </row>
     <row r="30">
@@ -6540,19 +6540,19 @@
         <v>84.97180805166646</v>
       </c>
       <c r="J30" t="n">
-        <v>84.97180805166646</v>
+        <v>216.4638770010931</v>
       </c>
       <c r="K30" t="n">
-        <v>355.4110803334343</v>
+        <v>397.9106829592629</v>
       </c>
       <c r="L30" t="n">
-        <v>809.0142890286426</v>
+        <v>851.5138916544712</v>
       </c>
       <c r="M30" t="n">
-        <v>1357.704706667068</v>
+        <v>851.5138916544712</v>
       </c>
       <c r="N30" t="n">
-        <v>1935.325971896837</v>
+        <v>1429.13515688424</v>
       </c>
       <c r="O30" t="n">
         <v>1935.325971896837</v>
@@ -6595,58 +6595,58 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.6408361493266</v>
+        <v>872.6408361493263</v>
       </c>
       <c r="C31" t="n">
-        <v>735.6689719305482</v>
+        <v>735.668971930548</v>
       </c>
       <c r="D31" t="n">
-        <v>617.5166512273411</v>
+        <v>617.5166512273408</v>
       </c>
       <c r="E31" t="n">
-        <v>501.5678763540765</v>
+        <v>501.5678763540764</v>
       </c>
       <c r="F31" t="n">
-        <v>386.6422475652947</v>
+        <v>386.6422475652946</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2460985172694</v>
+        <v>251.2460985172693</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0372009263319</v>
+        <v>140.0372009263318</v>
       </c>
       <c r="I31" t="n">
         <v>84.97180805166646</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1464592103756</v>
+        <v>185.146459210375</v>
       </c>
       <c r="K31" t="n">
-        <v>459.4473454659359</v>
+        <v>459.4473454659354</v>
       </c>
       <c r="L31" t="n">
-        <v>857.2233578631726</v>
+        <v>857.2233578631723</v>
       </c>
       <c r="M31" t="n">
-        <v>1285.308517792209</v>
+        <v>1285.308517792208</v>
       </c>
       <c r="N31" t="n">
-        <v>1709.394301115406</v>
+        <v>1709.394301115405</v>
       </c>
       <c r="O31" t="n">
         <v>2087.481405652859</v>
       </c>
       <c r="P31" t="n">
-        <v>2392.00107485947</v>
+        <v>2392.001074859469</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.037816209687</v>
+        <v>2529.037816209686</v>
       </c>
       <c r="R31" t="n">
         <v>2486.565826965043</v>
       </c>
       <c r="S31" t="n">
-        <v>2332.810817139178</v>
+        <v>2332.810817139177</v>
       </c>
       <c r="T31" t="n">
         <v>2144.471369218012</v>
@@ -6664,7 +6664,7 @@
         <v>1211.153242704839</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.324982270438</v>
+        <v>1022.324982270437</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2120.542034800677</v>
+        <v>2120.542034800679</v>
       </c>
       <c r="C32" t="n">
-        <v>1783.658759148007</v>
+        <v>1783.658759148008</v>
       </c>
       <c r="D32" t="n">
-        <v>1457.472301828997</v>
+        <v>1457.472301828999</v>
       </c>
       <c r="E32" t="n">
-        <v>1103.763290518494</v>
+        <v>1103.763290518496</v>
       </c>
       <c r="F32" t="n">
-        <v>724.856627016628</v>
+        <v>724.8566270166289</v>
       </c>
       <c r="G32" t="n">
-        <v>342.6266708110655</v>
+        <v>342.6266708110657</v>
       </c>
       <c r="H32" t="n">
-        <v>84.93897302920568</v>
+        <v>84.93897302920574</v>
       </c>
       <c r="I32" t="n">
-        <v>84.93897302920568</v>
+        <v>84.93897302920574</v>
       </c>
       <c r="J32" t="n">
-        <v>337.3090952838047</v>
+        <v>337.3090952838056</v>
       </c>
       <c r="K32" t="n">
-        <v>766.2850065840937</v>
+        <v>766.2850065840958</v>
       </c>
       <c r="L32" t="n">
-        <v>1335.369319054891</v>
+        <v>1335.369319054892</v>
       </c>
       <c r="M32" t="n">
-        <v>2000.254704930706</v>
+        <v>2000.254704930709</v>
       </c>
       <c r="N32" t="n">
-        <v>2680.512439845097</v>
+        <v>2680.512439845099</v>
       </c>
       <c r="O32" t="n">
-        <v>3309.525267838996</v>
+        <v>3309.525267838998</v>
       </c>
       <c r="P32" t="n">
-        <v>3811.872162946731</v>
+        <v>3811.872162946733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4140.941013826198</v>
+        <v>4140.941013826201</v>
       </c>
       <c r="R32" t="n">
-        <v>4246.948651460284</v>
+        <v>4246.948651460287</v>
       </c>
       <c r="S32" t="n">
-        <v>4186.129844303602</v>
+        <v>4186.129844303604</v>
       </c>
       <c r="T32" t="n">
-        <v>4015.572476502155</v>
+        <v>4015.572476502158</v>
       </c>
       <c r="U32" t="n">
-        <v>3794.182301276669</v>
+        <v>3794.182301276671</v>
       </c>
       <c r="V32" t="n">
-        <v>3495.19865522084</v>
+        <v>3495.198655220841</v>
       </c>
       <c r="W32" t="n">
-        <v>3174.509241238467</v>
+        <v>3174.509241238468</v>
       </c>
       <c r="X32" t="n">
-        <v>2833.122724265128</v>
+        <v>2833.12272426513</v>
       </c>
       <c r="Y32" t="n">
-        <v>2475.062633577058</v>
+        <v>2475.062633577059</v>
       </c>
     </row>
     <row r="33">
@@ -6762,19 +6762,19 @@
         <v>618.1705217219289</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9330667164734</v>
+        <v>458.9330667164735</v>
       </c>
       <c r="F33" t="n">
         <v>312.3985087433584</v>
       </c>
       <c r="G33" t="n">
-        <v>176.4437847524698</v>
+        <v>176.4437847524699</v>
       </c>
       <c r="H33" t="n">
-        <v>89.88594451594435</v>
+        <v>89.8859445159444</v>
       </c>
       <c r="I33" t="n">
-        <v>84.93897302920568</v>
+        <v>84.93897302920574</v>
       </c>
       <c r="J33" t="n">
         <v>216.4310419786324</v>
@@ -6783,13 +6783,13 @@
         <v>519.3267562867259</v>
       </c>
       <c r="L33" t="n">
-        <v>519.3267562867259</v>
+        <v>972.9299649819341</v>
       </c>
       <c r="M33" t="n">
-        <v>1068.017173925151</v>
+        <v>1357.671871644607</v>
       </c>
       <c r="N33" t="n">
-        <v>1645.63843915492</v>
+        <v>1935.293136874376</v>
       </c>
       <c r="O33" t="n">
         <v>1935.293136874376</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>871.8035430765773</v>
+        <v>871.8035430765783</v>
       </c>
       <c r="C34" t="n">
-        <v>734.9466014364116</v>
+        <v>734.9466014364125</v>
       </c>
       <c r="D34" t="n">
-        <v>616.9092033118171</v>
+        <v>616.9092033118178</v>
       </c>
       <c r="E34" t="n">
-        <v>501.0753510171652</v>
+        <v>501.0753510171658</v>
       </c>
       <c r="F34" t="n">
-        <v>386.264644806996</v>
+        <v>386.2646448069964</v>
       </c>
       <c r="G34" t="n">
-        <v>250.9834183375834</v>
+        <v>250.9834183375837</v>
       </c>
       <c r="H34" t="n">
-        <v>139.8894433252585</v>
+        <v>139.8894433252586</v>
       </c>
       <c r="I34" t="n">
-        <v>84.93897302920568</v>
+        <v>84.93897302920574</v>
       </c>
       <c r="J34" t="n">
-        <v>182.4864135950254</v>
+        <v>185.226259807213</v>
       </c>
       <c r="K34" t="n">
-        <v>456.8999354698839</v>
+        <v>459.6397816820714</v>
       </c>
       <c r="L34" t="n">
-        <v>854.788583486419</v>
+        <v>857.5284296986064</v>
       </c>
       <c r="M34" t="n">
-        <v>1282.986379034754</v>
+        <v>1285.726225246941</v>
       </c>
       <c r="N34" t="n">
-        <v>1707.184797977248</v>
+        <v>1709.924644189435</v>
       </c>
       <c r="O34" t="n">
-        <v>2085.384538134</v>
+        <v>2085.384538134002</v>
       </c>
       <c r="P34" t="n">
-        <v>2390.016842959908</v>
+        <v>2390.016842959911</v>
       </c>
       <c r="Q34" t="n">
-        <v>2527.166219929424</v>
+        <v>2527.166219929426</v>
       </c>
       <c r="R34" t="n">
-        <v>2484.809153263393</v>
+        <v>2484.809153263395</v>
       </c>
       <c r="S34" t="n">
-        <v>2331.16906601614</v>
+        <v>2331.169066016142</v>
       </c>
       <c r="T34" t="n">
-        <v>2142.944540673587</v>
+        <v>2142.944540673589</v>
       </c>
       <c r="U34" t="n">
-        <v>1885.939589752506</v>
+        <v>1885.939589752508</v>
       </c>
       <c r="V34" t="n">
-        <v>1663.33434283436</v>
+        <v>1663.334342834362</v>
       </c>
       <c r="W34" t="n">
-        <v>1405.996414085141</v>
+        <v>1405.996414085142</v>
       </c>
       <c r="X34" t="n">
-        <v>1210.086104474865</v>
+        <v>1210.086104474866</v>
       </c>
       <c r="Y34" t="n">
-        <v>1021.372766619076</v>
+        <v>1021.372766619077</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>2120.542034800679</v>
       </c>
       <c r="C35" t="n">
-        <v>1783.658759148008</v>
+        <v>1783.658759148009</v>
       </c>
       <c r="D35" t="n">
-        <v>1457.472301828998</v>
+        <v>1457.472301828999</v>
       </c>
       <c r="E35" t="n">
-        <v>1103.763290518495</v>
+        <v>1103.763290518496</v>
       </c>
       <c r="F35" t="n">
-        <v>724.8566270166284</v>
+        <v>724.8566270166297</v>
       </c>
       <c r="G35" t="n">
         <v>342.6266708110657</v>
@@ -6935,25 +6935,25 @@
         <v>84.93897302920574</v>
       </c>
       <c r="J35" t="n">
-        <v>337.3090952838047</v>
+        <v>337.3090952838056</v>
       </c>
       <c r="K35" t="n">
-        <v>766.2850065840937</v>
+        <v>766.2850065840944</v>
       </c>
       <c r="L35" t="n">
         <v>1335.369319054892</v>
       </c>
       <c r="M35" t="n">
-        <v>2000.254704930709</v>
+        <v>2000.25470493071</v>
       </c>
       <c r="N35" t="n">
-        <v>2680.512439845099</v>
+        <v>2680.5124398451</v>
       </c>
       <c r="O35" t="n">
         <v>3309.525267838998</v>
       </c>
       <c r="P35" t="n">
-        <v>3811.872162946734</v>
+        <v>3811.872162946733</v>
       </c>
       <c r="Q35" t="n">
         <v>4140.941013826201</v>
@@ -6971,16 +6971,16 @@
         <v>3794.182301276671</v>
       </c>
       <c r="V35" t="n">
-        <v>3495.198655220841</v>
+        <v>3495.198655220842</v>
       </c>
       <c r="W35" t="n">
-        <v>3174.509241238468</v>
+        <v>3174.509241238469</v>
       </c>
       <c r="X35" t="n">
         <v>2833.12272426513</v>
       </c>
       <c r="Y35" t="n">
-        <v>2475.062633577059</v>
+        <v>2475.06263357706</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7017,22 @@
         <v>216.4310419786324</v>
       </c>
       <c r="K36" t="n">
-        <v>216.4310419786324</v>
+        <v>519.3267562867259</v>
       </c>
       <c r="L36" t="n">
-        <v>670.0342506738407</v>
+        <v>808.9814540061817</v>
       </c>
       <c r="M36" t="n">
-        <v>1218.724668312266</v>
+        <v>1357.671871644607</v>
       </c>
       <c r="N36" t="n">
-        <v>1637.835375885018</v>
+        <v>1935.293136874376</v>
       </c>
       <c r="O36" t="n">
-        <v>2144.026190897615</v>
+        <v>1935.293136874376</v>
       </c>
       <c r="P36" t="n">
-        <v>2530.955880272499</v>
+        <v>2322.222826249259</v>
       </c>
       <c r="Q36" t="n">
         <v>2530.955880272499</v>
@@ -7102,16 +7102,16 @@
         <v>857.5284296986065</v>
       </c>
       <c r="M37" t="n">
-        <v>1285.726225246941</v>
+        <v>1282.986379034755</v>
       </c>
       <c r="N37" t="n">
-        <v>1709.924644189436</v>
+        <v>1707.184797977249</v>
       </c>
       <c r="O37" t="n">
-        <v>2088.124384346188</v>
+        <v>2085.384538134001</v>
       </c>
       <c r="P37" t="n">
-        <v>2392.756689172096</v>
+        <v>2390.016842959909</v>
       </c>
       <c r="Q37" t="n">
         <v>2527.166219929425</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2120.542034800679</v>
+        <v>2120.542034800677</v>
       </c>
       <c r="C38" t="n">
-        <v>1783.658759148008</v>
+        <v>1783.658759148007</v>
       </c>
       <c r="D38" t="n">
-        <v>1457.472301828999</v>
+        <v>1457.472301828997</v>
       </c>
       <c r="E38" t="n">
-        <v>1103.763290518496</v>
+        <v>1103.763290518494</v>
       </c>
       <c r="F38" t="n">
-        <v>724.8566270166289</v>
+        <v>724.8566270166275</v>
       </c>
       <c r="G38" t="n">
         <v>342.6266708110657</v>
@@ -7172,22 +7172,22 @@
         <v>84.93897302920574</v>
       </c>
       <c r="J38" t="n">
-        <v>337.3090952838043</v>
+        <v>337.3090952838056</v>
       </c>
       <c r="K38" t="n">
-        <v>766.2850065840935</v>
+        <v>766.2850065840944</v>
       </c>
       <c r="L38" t="n">
-        <v>1335.369319054891</v>
+        <v>1335.369319054892</v>
       </c>
       <c r="M38" t="n">
-        <v>2000.254704930708</v>
+        <v>2000.25470493071</v>
       </c>
       <c r="N38" t="n">
-        <v>2680.512439845098</v>
+        <v>2680.5124398451</v>
       </c>
       <c r="O38" t="n">
-        <v>3309.525267838997</v>
+        <v>3309.525267838998</v>
       </c>
       <c r="P38" t="n">
         <v>3811.872162946733</v>
@@ -7199,25 +7199,25 @@
         <v>4246.948651460287</v>
       </c>
       <c r="S38" t="n">
-        <v>4186.129844303604</v>
+        <v>4186.129844303603</v>
       </c>
       <c r="T38" t="n">
-        <v>4015.572476502158</v>
+        <v>4015.572476502156</v>
       </c>
       <c r="U38" t="n">
-        <v>3794.182301276671</v>
+        <v>3794.18230127667</v>
       </c>
       <c r="V38" t="n">
-        <v>3495.198655220842</v>
+        <v>3495.19865522084</v>
       </c>
       <c r="W38" t="n">
-        <v>3174.509241238469</v>
+        <v>3174.509241238467</v>
       </c>
       <c r="X38" t="n">
-        <v>2833.12272426513</v>
+        <v>2833.122724265128</v>
       </c>
       <c r="Y38" t="n">
-        <v>2475.062633577059</v>
+        <v>2475.062633577058</v>
       </c>
     </row>
     <row r="39">
@@ -7251,22 +7251,22 @@
         <v>84.93897302920574</v>
       </c>
       <c r="J39" t="n">
-        <v>216.4310419786324</v>
+        <v>84.93897302920574</v>
       </c>
       <c r="K39" t="n">
-        <v>519.3267562867259</v>
+        <v>387.8346873372992</v>
       </c>
       <c r="L39" t="n">
-        <v>519.3267562867259</v>
+        <v>841.4378960325075</v>
       </c>
       <c r="M39" t="n">
-        <v>1068.017173925151</v>
+        <v>1357.671871644607</v>
       </c>
       <c r="N39" t="n">
-        <v>1645.63843915492</v>
+        <v>1935.293136874376</v>
       </c>
       <c r="O39" t="n">
-        <v>2151.829254167517</v>
+        <v>1935.293136874376</v>
       </c>
       <c r="P39" t="n">
         <v>2322.222826249259</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>871.8035430765779</v>
+        <v>871.8035430765781</v>
       </c>
       <c r="C40" t="n">
-        <v>734.946601436412</v>
+        <v>734.9466014364123</v>
       </c>
       <c r="D40" t="n">
-        <v>616.9092033118175</v>
+        <v>616.9092033118177</v>
       </c>
       <c r="E40" t="n">
-        <v>501.0753510171655</v>
+        <v>501.0753510171657</v>
       </c>
       <c r="F40" t="n">
-        <v>386.2646448069963</v>
+        <v>386.2646448069964</v>
       </c>
       <c r="G40" t="n">
-        <v>250.9834183375835</v>
+        <v>250.9834183375837</v>
       </c>
       <c r="H40" t="n">
         <v>139.8894433252586</v>
@@ -7333,49 +7333,49 @@
         <v>185.226259807213</v>
       </c>
       <c r="K40" t="n">
-        <v>456.8999354698853</v>
+        <v>459.6397816820714</v>
       </c>
       <c r="L40" t="n">
-        <v>854.7885834864203</v>
+        <v>854.7885834864212</v>
       </c>
       <c r="M40" t="n">
-        <v>1282.986379034755</v>
+        <v>1282.986379034756</v>
       </c>
       <c r="N40" t="n">
-        <v>1707.184797977249</v>
+        <v>1707.18479797725</v>
       </c>
       <c r="O40" t="n">
-        <v>2085.384538134001</v>
+        <v>2085.384538134002</v>
       </c>
       <c r="P40" t="n">
-        <v>2390.016842959909</v>
+        <v>2390.01684295991</v>
       </c>
       <c r="Q40" t="n">
-        <v>2527.166219929425</v>
+        <v>2527.166219929426</v>
       </c>
       <c r="R40" t="n">
-        <v>2484.809153263393</v>
+        <v>2484.809153263394</v>
       </c>
       <c r="S40" t="n">
-        <v>2331.169066016141</v>
+        <v>2331.169066016142</v>
       </c>
       <c r="T40" t="n">
-        <v>2142.944540673588</v>
+        <v>2142.944540673589</v>
       </c>
       <c r="U40" t="n">
-        <v>1885.939589752507</v>
+        <v>1885.939589752508</v>
       </c>
       <c r="V40" t="n">
-        <v>1663.334342834361</v>
+        <v>1663.334342834362</v>
       </c>
       <c r="W40" t="n">
         <v>1405.996414085142</v>
       </c>
       <c r="X40" t="n">
-        <v>1210.086104474865</v>
+        <v>1210.086104474866</v>
       </c>
       <c r="Y40" t="n">
-        <v>1021.372766619076</v>
+        <v>1021.372766619077</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1102.499142153758</v>
       </c>
       <c r="F41" t="n">
-        <v>723.4775560732792</v>
+        <v>723.4775560732789</v>
       </c>
       <c r="G41" t="n">
-        <v>341.132677289104</v>
+        <v>341.1326772891037</v>
       </c>
       <c r="H41" t="n">
         <v>84.93897302920574</v>
@@ -7418,10 +7418,10 @@
         <v>1335.369319054891</v>
       </c>
       <c r="M41" t="n">
-        <v>2000.254704930709</v>
+        <v>2000.254704930708</v>
       </c>
       <c r="N41" t="n">
-        <v>2680.512439845099</v>
+        <v>2680.512439845098</v>
       </c>
       <c r="O41" t="n">
         <v>3309.525267838998</v>
@@ -7488,28 +7488,28 @@
         <v>84.93897302920574</v>
       </c>
       <c r="J42" t="n">
-        <v>216.4310419786324</v>
+        <v>84.93897302920574</v>
       </c>
       <c r="K42" t="n">
-        <v>519.3267562867259</v>
+        <v>387.8346873372992</v>
       </c>
       <c r="L42" t="n">
-        <v>876.1901538778026</v>
+        <v>511.523693016824</v>
       </c>
       <c r="M42" t="n">
-        <v>876.1901538778026</v>
+        <v>1060.214110655249</v>
       </c>
       <c r="N42" t="n">
-        <v>1453.811419107571</v>
+        <v>1637.835375885018</v>
       </c>
       <c r="O42" t="n">
-        <v>1960.002234120168</v>
+        <v>2144.026190897615</v>
       </c>
       <c r="P42" t="n">
-        <v>2346.931923495052</v>
+        <v>2530.955880272499</v>
       </c>
       <c r="Q42" t="n">
-        <v>2555.664977518291</v>
+        <v>2530.955880272499</v>
       </c>
       <c r="R42" t="n">
         <v>2555.664977518291</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.6080011268654</v>
+        <v>872.6080011268662</v>
       </c>
       <c r="C43" t="n">
-        <v>735.6361369080871</v>
+        <v>735.6361369080878</v>
       </c>
       <c r="D43" t="n">
-        <v>617.48381620488</v>
+        <v>617.4838162048807</v>
       </c>
       <c r="E43" t="n">
-        <v>501.5350413316155</v>
+        <v>501.5350413316162</v>
       </c>
       <c r="F43" t="n">
-        <v>386.6094125428338</v>
+        <v>386.6094125428344</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2132634948086</v>
+        <v>251.2132634948091</v>
       </c>
       <c r="H43" t="n">
         <v>140.0043659038711</v>
@@ -7567,13 +7567,13 @@
         <v>84.93897302920574</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1136241879149</v>
+        <v>185.1136241879151</v>
       </c>
       <c r="K43" t="n">
-        <v>459.4145104434753</v>
+        <v>459.4145104434755</v>
       </c>
       <c r="L43" t="n">
-        <v>857.1905228407121</v>
+        <v>857.1905228407123</v>
       </c>
       <c r="M43" t="n">
         <v>1285.275682769749</v>
@@ -7591,28 +7591,28 @@
         <v>2529.004981187226</v>
       </c>
       <c r="R43" t="n">
-        <v>2486.532991942582</v>
+        <v>2486.532991942583</v>
       </c>
       <c r="S43" t="n">
         <v>2332.777982116717</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.43853419555</v>
+        <v>2144.438534195552</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.318660695857</v>
+        <v>1887.318660695858</v>
       </c>
       <c r="V43" t="n">
-        <v>1664.598491199099</v>
+        <v>1664.5984911991</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.145639871267</v>
+        <v>1407.145639871268</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.120407682378</v>
+        <v>1211.120407682379</v>
       </c>
       <c r="Y43" t="n">
-        <v>1022.292147247976</v>
+        <v>1022.292147247977</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2121.231570272353</v>
+        <v>2119.622654171778</v>
       </c>
       <c r="C44" t="n">
-        <v>1784.23337204107</v>
+        <v>1782.624455940495</v>
       </c>
       <c r="D44" t="n">
-        <v>1457.931992143448</v>
+        <v>1456.323076042873</v>
       </c>
       <c r="E44" t="n">
-        <v>1104.108058254332</v>
+        <v>1102.499142153757</v>
       </c>
       <c r="F44" t="n">
         <v>725.0864721738533</v>
@@ -7640,19 +7640,19 @@
         <v>342.7415933896781</v>
       </c>
       <c r="H44" t="n">
-        <v>84.93897302920574</v>
+        <v>84.93897302920571</v>
       </c>
       <c r="I44" t="n">
-        <v>84.93897302920574</v>
+        <v>84.93897302920571</v>
       </c>
       <c r="J44" t="n">
         <v>337.3090952838056</v>
       </c>
       <c r="K44" t="n">
-        <v>766.2850065840944</v>
+        <v>766.2850065840948</v>
       </c>
       <c r="L44" t="n">
-        <v>1335.369319054892</v>
+        <v>1335.369319054893</v>
       </c>
       <c r="M44" t="n">
         <v>2000.25470493071</v>
@@ -7664,34 +7664,34 @@
         <v>3309.525267838998</v>
       </c>
       <c r="P44" t="n">
-        <v>3811.872162946733</v>
+        <v>3811.872162946732</v>
       </c>
       <c r="Q44" t="n">
-        <v>4140.941013826201</v>
+        <v>4140.9410138262</v>
       </c>
       <c r="R44" t="n">
-        <v>4246.948651460287</v>
+        <v>4246.948651460286</v>
       </c>
       <c r="S44" t="n">
-        <v>4186.014921724992</v>
+        <v>4186.014921724991</v>
       </c>
       <c r="T44" t="n">
-        <v>4015.342631344933</v>
+        <v>4015.342631344932</v>
       </c>
       <c r="U44" t="n">
-        <v>3793.837533540834</v>
+        <v>3793.837533540833</v>
       </c>
       <c r="V44" t="n">
-        <v>3494.738964906392</v>
+        <v>3494.738964906391</v>
       </c>
       <c r="W44" t="n">
-        <v>3173.934628345406</v>
+        <v>3173.934628345405</v>
       </c>
       <c r="X44" t="n">
-        <v>2832.433188793455</v>
+        <v>2832.433188793454</v>
       </c>
       <c r="Y44" t="n">
-        <v>2475.867091627346</v>
+        <v>2474.258175526771</v>
       </c>
     </row>
     <row r="45">
@@ -7719,31 +7719,31 @@
         <v>176.4437847524699</v>
       </c>
       <c r="H45" t="n">
-        <v>89.8859445159444</v>
+        <v>89.88594451594439</v>
       </c>
       <c r="I45" t="n">
-        <v>84.93897302920574</v>
+        <v>84.93897302920571</v>
       </c>
       <c r="J45" t="n">
-        <v>216.4310419786324</v>
+        <v>84.93897302920571</v>
       </c>
       <c r="K45" t="n">
-        <v>519.3267562867259</v>
+        <v>387.8346873372992</v>
       </c>
       <c r="L45" t="n">
-        <v>519.3267562867259</v>
+        <v>841.4378960325074</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4810566320103</v>
+        <v>1390.128313670933</v>
       </c>
       <c r="N45" t="n">
-        <v>1429.102321861779</v>
+        <v>1637.835375885018</v>
       </c>
       <c r="O45" t="n">
-        <v>1935.293136874376</v>
+        <v>2144.026190897615</v>
       </c>
       <c r="P45" t="n">
-        <v>2322.222826249259</v>
+        <v>2530.955880272499</v>
       </c>
       <c r="Q45" t="n">
         <v>2530.955880272499</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.6080011268659</v>
+        <v>872.6080011268662</v>
       </c>
       <c r="C46" t="n">
-        <v>735.6361369080877</v>
+        <v>735.6361369080879</v>
       </c>
       <c r="D46" t="n">
-        <v>617.4838162048806</v>
+        <v>617.4838162048808</v>
       </c>
       <c r="E46" t="n">
-        <v>501.5350413316161</v>
+        <v>501.5350413316163</v>
       </c>
       <c r="F46" t="n">
-        <v>386.6094125428343</v>
+        <v>386.6094125428345</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2132634948089</v>
+        <v>251.2132634948093</v>
       </c>
       <c r="H46" t="n">
         <v>140.0043659038711</v>
       </c>
       <c r="I46" t="n">
-        <v>84.93897302920574</v>
+        <v>84.93897302920571</v>
       </c>
       <c r="J46" t="n">
         <v>185.1136241879149</v>
       </c>
       <c r="K46" t="n">
-        <v>459.4145104434753</v>
+        <v>459.4145104434751</v>
       </c>
       <c r="L46" t="n">
-        <v>857.1905228407122</v>
+        <v>857.190522840712</v>
       </c>
       <c r="M46" t="n">
-        <v>1285.275682769749</v>
+        <v>1285.275682769748</v>
       </c>
       <c r="N46" t="n">
         <v>1709.361466092945</v>
@@ -7837,13 +7837,13 @@
         <v>2144.438534195551</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.318660695857</v>
+        <v>1887.318660695858</v>
       </c>
       <c r="V46" t="n">
         <v>1664.598491199099</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.145639871267</v>
+        <v>1407.145639871268</v>
       </c>
       <c r="X46" t="n">
         <v>1211.120407682379</v>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>85.97480228639999</v>
+        <v>85.97480228639998</v>
       </c>
       <c r="K2" t="n">
         <v>77.60291342766286</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.28822100560666</v>
+        <v>81.49259228126795</v>
       </c>
       <c r="K5" t="n">
-        <v>67.79086957383213</v>
+        <v>61.5864982981706</v>
       </c>
       <c r="L5" t="n">
-        <v>45.59459802332344</v>
+        <v>39.1289900623708</v>
       </c>
       <c r="M5" t="n">
-        <v>11.54921004200321</v>
+        <v>18.01481800295525</v>
       </c>
       <c r="N5" t="n">
-        <v>7.075675830938536</v>
+        <v>13.54128379189058</v>
       </c>
       <c r="O5" t="n">
-        <v>26.61692886157317</v>
+        <v>26.61692886157306</v>
       </c>
       <c r="P5" t="n">
-        <v>52.0481819885201</v>
+        <v>52.04818198851973</v>
       </c>
       <c r="Q5" t="n">
-        <v>94.21096503124272</v>
+        <v>87.74535707029025</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>63.84907487417528</v>
+        <v>63.84907487417514</v>
       </c>
       <c r="K6" t="n">
-        <v>30.18397129207145</v>
+        <v>30.18397129207121</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>6.663903355025155</v>
+        <v>6.663903355024871</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.87807363717188</v>
+        <v>54.8780736371717</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>64.07469926361505</v>
+        <v>70.54030722456743</v>
       </c>
       <c r="L7" t="n">
-        <v>58.25128640464935</v>
+        <v>51.78567844369698</v>
       </c>
       <c r="M7" t="n">
-        <v>51.30954206716473</v>
+        <v>57.51391334282604</v>
       </c>
       <c r="N7" t="n">
-        <v>48.61822894573226</v>
+        <v>48.6182289457324</v>
       </c>
       <c r="O7" t="n">
-        <v>65.91864767376541</v>
+        <v>59.45303971281304</v>
       </c>
       <c r="P7" t="n">
-        <v>76.33123387741695</v>
+        <v>76.59247056270813</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>76.35069782338978</v>
+        <v>76.62851785335792</v>
       </c>
       <c r="K8" t="n">
-        <v>53.28984570098882</v>
+        <v>60.16589144270026</v>
       </c>
       <c r="L8" t="n">
         <v>28.83625887535973</v>
       </c>
       <c r="M8" t="n">
-        <v>0.09656339947139259</v>
+        <v>6.972609141182829</v>
       </c>
       <c r="N8" t="n">
-        <v>2.313759134068562</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>9.161922983629779</v>
       </c>
       <c r="P8" t="n">
-        <v>49.5450308567861</v>
+        <v>44.70492421917508</v>
       </c>
       <c r="Q8" t="n">
-        <v>87.5780165662824</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8614,19 +8614,19 @@
         <v>67.2738002623752</v>
       </c>
       <c r="L10" t="n">
-        <v>47.43596908875769</v>
+        <v>54.31201483046912</v>
       </c>
       <c r="M10" t="n">
-        <v>53.59942916834656</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N10" t="n">
-        <v>37.67551094615368</v>
+        <v>44.55155668786512</v>
       </c>
       <c r="O10" t="n">
         <v>62.19374969259492</v>
       </c>
       <c r="P10" t="n">
-        <v>73.46441419780774</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1.625167778359469</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1.625167778359298</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10124,13 +10124,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1.625167778359355</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.625167778359241</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -11066,13 +11066,13 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -22559,7 +22559,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>14.18259021116552</v>
+        <v>14.18259021116549</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22793,10 +22793,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4104377807592527</v>
+        <v>0.4104377807589117</v>
       </c>
       <c r="G5" t="n">
-        <v>7.591070748944738</v>
+        <v>7.591070748944395</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.592826939568113</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.592826939570031</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23504,10 +23504,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.592826939568795</v>
       </c>
       <c r="G14" t="n">
-        <v>1.592826939570273</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.592826939568425</v>
+        <v>1.592826939568766</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25874,7 +25874,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1.592826939569193</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.592826939568226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>663599.9329644801</v>
+        <v>663599.93296448</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>648407.9894511639</v>
+        <v>648407.989451164</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>648407.9894511639</v>
+        <v>648407.9894511641</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>648506.250945066</v>
+        <v>648506.2509450661</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>648506.2509450661</v>
+        <v>648506.250945066</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>798881.3648813737</v>
+        <v>798881.3648813734</v>
       </c>
       <c r="C2" t="n">
-        <v>799894.7285406863</v>
+        <v>799894.7285406858</v>
       </c>
       <c r="D2" t="n">
-        <v>799963.4986759215</v>
+        <v>799963.4986759216</v>
       </c>
       <c r="E2" t="n">
-        <v>800392.1063188963</v>
+        <v>800392.1063188965</v>
       </c>
       <c r="F2" t="n">
-        <v>800392.1063188965</v>
+        <v>800392.1063188964</v>
       </c>
       <c r="G2" t="n">
-        <v>800515.725617677</v>
+        <v>800515.7256176771</v>
       </c>
       <c r="H2" t="n">
-        <v>800515.7256176771</v>
+        <v>800515.7256176769</v>
       </c>
       <c r="I2" t="n">
         <v>800515.7256176769</v>
       </c>
       <c r="J2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176767</v>
       </c>
       <c r="K2" t="n">
-        <v>800515.7256176767</v>
+        <v>800515.7256176769</v>
       </c>
       <c r="L2" t="n">
-        <v>800515.7256176769</v>
+        <v>800515.725617677</v>
       </c>
       <c r="M2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.725617677</v>
       </c>
       <c r="N2" t="n">
-        <v>800515.7256176769</v>
+        <v>800515.725617677</v>
       </c>
       <c r="O2" t="n">
         <v>800392.1063188964</v>
       </c>
       <c r="P2" t="n">
-        <v>800392.1063188964</v>
+        <v>800392.1063188965</v>
       </c>
     </row>
     <row r="3">
@@ -26366,43 +26366,43 @@
         <v>268497.8903749795</v>
       </c>
       <c r="C3" t="n">
-        <v>30609.34553779484</v>
+        <v>30609.34553779558</v>
       </c>
       <c r="D3" t="n">
-        <v>14022.21553264396</v>
+        <v>14022.21553264327</v>
       </c>
       <c r="E3" t="n">
-        <v>1104756.829121145</v>
+        <v>1104756.829121146</v>
       </c>
       <c r="F3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>91.0186822611962</v>
+        <v>91.01868226111094</v>
       </c>
       <c r="H3" t="n">
-        <v>4.050466486660298e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25332.11031807765</v>
+        <v>25332.11031807763</v>
       </c>
       <c r="K3" t="n">
-        <v>1664.040589694283</v>
+        <v>1664.040589694619</v>
       </c>
       <c r="L3" t="n">
-        <v>182.0373645224095</v>
+        <v>182.037364522202</v>
       </c>
       <c r="M3" t="n">
-        <v>262875.6098316098</v>
+        <v>262875.6098316099</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>25133.70305310754</v>
+        <v>25133.70305310765</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,43 +26418,43 @@
         <v>366548.5230896528</v>
       </c>
       <c r="C4" t="n">
-        <v>357868.5472504342</v>
+        <v>357868.547250434</v>
       </c>
       <c r="D4" t="n">
         <v>353542.7788371934</v>
       </c>
       <c r="E4" t="n">
-        <v>44045.46150070652</v>
+        <v>44045.46150070651</v>
       </c>
       <c r="F4" t="n">
         <v>44045.46150070652</v>
       </c>
       <c r="G4" t="n">
-        <v>44117.25533096769</v>
+        <v>44117.25533096757</v>
       </c>
       <c r="H4" t="n">
-        <v>44117.25533096764</v>
+        <v>44117.25533096758</v>
       </c>
       <c r="I4" t="n">
-        <v>44117.25533096767</v>
+        <v>44117.25533096763</v>
       </c>
       <c r="J4" t="n">
         <v>44110.33722331794</v>
       </c>
       <c r="K4" t="n">
-        <v>44110.33722331793</v>
+        <v>44110.33722331794</v>
       </c>
       <c r="L4" t="n">
-        <v>44117.2553309676</v>
+        <v>44117.25533096759</v>
       </c>
       <c r="M4" t="n">
-        <v>44117.25533096767</v>
+        <v>44117.25533096763</v>
       </c>
       <c r="N4" t="n">
-        <v>44117.25533096762</v>
+        <v>44117.25533096758</v>
       </c>
       <c r="O4" t="n">
-        <v>44045.46150070659</v>
+        <v>44045.46150070653</v>
       </c>
       <c r="P4" t="n">
         <v>44045.46150070654</v>
@@ -26470,25 +26470,25 @@
         <v>39701.87879260092</v>
       </c>
       <c r="C5" t="n">
-        <v>40777.77435013095</v>
+        <v>40777.77435013099</v>
       </c>
       <c r="D5" t="n">
         <v>41156.4187984472</v>
       </c>
       <c r="E5" t="n">
-        <v>95068.62688911195</v>
+        <v>95068.626889112</v>
       </c>
       <c r="F5" t="n">
-        <v>95068.62688911195</v>
+        <v>95068.626889112</v>
       </c>
       <c r="G5" t="n">
-        <v>95078.19170111073</v>
+        <v>95078.19170111076</v>
       </c>
       <c r="H5" t="n">
-        <v>95078.19170111074</v>
+        <v>95078.19170111076</v>
       </c>
       <c r="I5" t="n">
-        <v>95078.19170111074</v>
+        <v>95078.19170111076</v>
       </c>
       <c r="J5" t="n">
         <v>95093.58150618213</v>
@@ -26497,7 +26497,7 @@
         <v>95093.58150618213</v>
       </c>
       <c r="L5" t="n">
-        <v>95078.19170111071</v>
+        <v>95078.19170111076</v>
       </c>
       <c r="M5" t="n">
         <v>95078.19170111076</v>
@@ -26509,7 +26509,7 @@
         <v>95068.626889112</v>
       </c>
       <c r="P5" t="n">
-        <v>95068.626889112</v>
+        <v>95068.62688911197</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>124133.0726241406</v>
+        <v>124128.8819555856</v>
       </c>
       <c r="C6" t="n">
-        <v>370639.0614023263</v>
+        <v>370637.4691021279</v>
       </c>
       <c r="D6" t="n">
-        <v>391242.0855076369</v>
+        <v>391240.6695411204</v>
       </c>
       <c r="E6" t="n">
-        <v>-443478.8111920671</v>
+        <v>-443479.1281646286</v>
       </c>
       <c r="F6" t="n">
-        <v>661278.0179290781</v>
+        <v>661277.7009565169</v>
       </c>
       <c r="G6" t="n">
-        <v>661229.2599033373</v>
+        <v>661229.2599033376</v>
       </c>
       <c r="H6" t="n">
-        <v>661320.2785855983</v>
+        <v>661320.2785855985</v>
       </c>
       <c r="I6" t="n">
-        <v>661320.2785855983</v>
+        <v>661320.2785855985</v>
       </c>
       <c r="J6" t="n">
-        <v>635979.6965700985</v>
+        <v>635979.6965700991</v>
       </c>
       <c r="K6" t="n">
-        <v>659647.7662984824</v>
+        <v>659647.7662984822</v>
       </c>
       <c r="L6" t="n">
-        <v>661138.2412210761</v>
+        <v>661138.2412210763</v>
       </c>
       <c r="M6" t="n">
-        <v>398444.6687539879</v>
+        <v>398444.6687539886</v>
       </c>
       <c r="N6" t="n">
-        <v>661320.2785855985</v>
+        <v>661320.2785855986</v>
       </c>
       <c r="O6" t="n">
-        <v>636144.3148759704</v>
+        <v>636143.9979034094</v>
       </c>
       <c r="P6" t="n">
-        <v>661278.0179290778</v>
+        <v>661277.7009565171</v>
       </c>
     </row>
   </sheetData>
@@ -26695,37 +26695,37 @@
         <v>31.64467552203732</v>
       </c>
       <c r="F2" t="n">
-        <v>31.64467552203732</v>
+        <v>31.64467552203728</v>
       </c>
       <c r="G2" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="H2" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="I2" t="n">
-        <v>31.75844887486381</v>
+        <v>31.75844887486369</v>
       </c>
       <c r="J2" t="n">
         <v>31.6446755220373</v>
       </c>
       <c r="K2" t="n">
-        <v>31.64467552203729</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="L2" t="n">
-        <v>31.7584488748638</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="M2" t="n">
         <v>31.75844887486373</v>
       </c>
       <c r="N2" t="n">
-        <v>31.75844887486372</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="O2" t="n">
-        <v>31.64467552203734</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="P2" t="n">
-        <v>31.64467552203734</v>
+        <v>31.64467552203733</v>
       </c>
     </row>
     <row r="3">
@@ -26738,19 +26738,19 @@
         <v>278.6366418624276</v>
       </c>
       <c r="C3" t="n">
-        <v>309.9571278029845</v>
+        <v>309.9571278029852</v>
       </c>
       <c r="D3" t="n">
         <v>326.1814319885848</v>
       </c>
       <c r="E3" t="n">
-        <v>1277.737209195113</v>
+        <v>1277.737209195114</v>
       </c>
       <c r="F3" t="n">
-        <v>1277.737209195113</v>
+        <v>1277.737209195114</v>
       </c>
       <c r="G3" t="n">
-        <v>1277.737209195113</v>
+        <v>1277.737209195114</v>
       </c>
       <c r="H3" t="n">
         <v>1277.737209195114</v>
@@ -26790,25 +26790,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>6.465607960952184</v>
+        <v>6.465607960952525</v>
       </c>
       <c r="D4" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>1061.737162865071</v>
+        <v>1061.737162865072</v>
       </c>
       <c r="F4" t="n">
-        <v>1061.737162865071</v>
+        <v>1061.737162865072</v>
       </c>
       <c r="G4" t="n">
-        <v>1061.737162865071</v>
+        <v>1061.737162865072</v>
       </c>
       <c r="H4" t="n">
-        <v>1061.737162865071</v>
+        <v>1061.737162865072</v>
       </c>
       <c r="I4" t="n">
-        <v>1061.737162865071</v>
+        <v>1061.737162865072</v>
       </c>
       <c r="J4" t="n">
         <v>1062.147600645831</v>
@@ -26817,7 +26817,7 @@
         <v>1062.147600645831</v>
       </c>
       <c r="L4" t="n">
-        <v>1061.737162865071</v>
+        <v>1061.737162865072</v>
       </c>
       <c r="M4" t="n">
         <v>1061.737162865072</v>
@@ -26829,7 +26829,7 @@
         <v>1061.737162865072</v>
       </c>
       <c r="P4" t="n">
-        <v>1061.737162865072</v>
+        <v>1061.737162865071</v>
       </c>
     </row>
   </sheetData>
@@ -26917,34 +26917,34 @@
         <v>31.64467552203732</v>
       </c>
       <c r="F2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>-3.552713678800501e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1137733528264953</v>
+        <v>0.1137733528263887</v>
       </c>
       <c r="H2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>31.53090216921081</v>
+        <v>31.53090216921094</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-3.552713678800501e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2275467056530118</v>
+        <v>0.2275467056527525</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>-6.039613253960852e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>31.41712881638443</v>
+        <v>31.41712881638456</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>278.6366418624276</v>
       </c>
       <c r="C3" t="n">
-        <v>31.32048594055686</v>
+        <v>31.32048594055755</v>
       </c>
       <c r="D3" t="n">
-        <v>16.22430418560032</v>
+        <v>16.22430418559964</v>
       </c>
       <c r="E3" t="n">
-        <v>951.5557772065285</v>
+        <v>951.555777206529</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27012,10 +27012,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>6.465607960952184</v>
+        <v>6.465607960952525</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4104377807592527</v>
+        <v>0.4104377807589117</v>
       </c>
       <c r="E4" t="n">
         <v>1054.86111712336</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4104377807593664</v>
+        <v>0.4104377807589117</v>
       </c>
       <c r="K4" t="n">
-        <v>6.465607960951957</v>
+        <v>6.465607960953372</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27154,19 +27154,19 @@
         <v>31.64467552203732</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1137733528264953</v>
+        <v>0.1137733528263887</v>
       </c>
       <c r="M2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>31.53090216921081</v>
+        <v>31.53090216921094</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27258,10 +27258,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>6.465607960952184</v>
+        <v>6.465607960952525</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4104377807592527</v>
+        <v>0.4104377807589117</v>
       </c>
       <c r="M4" t="n">
         <v>1054.86111712336</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>62.94669922618534</v>
+        <v>62.94669922618533</v>
       </c>
       <c r="S3" t="n">
         <v>160.5508486671644</v>
@@ -27558,7 +27558,7 @@
         <v>140.3401468734729</v>
       </c>
       <c r="J4" t="n">
-        <v>57.83529218611378</v>
+        <v>57.83529218611377</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>44.08791033046782</v>
+        <v>44.08791033046781</v>
       </c>
       <c r="R4" t="n">
         <v>154.7009843173077</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>377.0389341714739</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>326.7136023766222</v>
+        <v>326.7136023766221</v>
       </c>
       <c r="I5" t="n">
-        <v>162.437207481463</v>
+        <v>162.4372074814628</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>71.59637651661008</v>
+        <v>71.59637651660991</v>
       </c>
       <c r="S5" t="n">
-        <v>180.6255045618815</v>
+        <v>180.6255045618814</v>
       </c>
       <c r="T5" t="n">
-        <v>217.6412271442015</v>
+        <v>211.1756191832489</v>
       </c>
       <c r="U5" t="n">
-        <v>244.7803602424653</v>
+        <v>245.5510607114105</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27713,7 +27713,7 @@
         <v>105.7965235249665</v>
       </c>
       <c r="I6" t="n">
-        <v>60.74735315890435</v>
+        <v>66.44226065091098</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>58.7639369717087</v>
+        <v>53.06902947970163</v>
       </c>
       <c r="S6" t="n">
-        <v>159.2995066109544</v>
+        <v>152.8338986500019</v>
       </c>
       <c r="T6" t="n">
-        <v>191.0118509182945</v>
+        <v>197.4774588792467</v>
       </c>
       <c r="U6" t="n">
         <v>225.8975202232668</v>
       </c>
       <c r="V6" t="n">
-        <v>226.3349791884731</v>
+        <v>226.3349791884727</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27761,7 +27761,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>199.2170878163522</v>
+        <v>199.2170878163518</v>
       </c>
     </row>
     <row r="7">
@@ -27789,13 +27789,13 @@
         <v>167.4320402755353</v>
       </c>
       <c r="H7" t="n">
-        <v>151.5627884418047</v>
+        <v>157.2576959338114</v>
       </c>
       <c r="I7" t="n">
         <v>138.6416523244341</v>
       </c>
       <c r="J7" t="n">
-        <v>53.84218695398737</v>
+        <v>53.84218695398728</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>39.35851695344373</v>
+        <v>32.8929089924911</v>
       </c>
       <c r="R7" t="n">
-        <v>152.1614577031767</v>
+        <v>145.6958497422241</v>
       </c>
       <c r="S7" t="n">
         <v>214.2758142009342</v>
       </c>
       <c r="T7" t="n">
-        <v>225.5573951648815</v>
+        <v>219.8624876728745</v>
       </c>
       <c r="U7" t="n">
-        <v>279.8229338091974</v>
+        <v>279.8229338091971</v>
       </c>
       <c r="V7" t="n">
-        <v>245.6720353628758</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>212.1190453911426</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27859,7 +27859,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>375.8739489829624</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>326.0456339133427</v>
       </c>
       <c r="I8" t="n">
-        <v>153.0466391784838</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>61.44287021002937</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S8" t="n">
         <v>179.1392278518137</v>
@@ -27910,7 +27910,7 @@
         <v>251.2407503367447</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>320.8762127284235</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27941,10 +27941,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>139.0127913040845</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>129.7658736243917</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H9" t="n">
         <v>105.4594865644317</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>56.59722706556381</v>
+        <v>49.72118132385237</v>
       </c>
       <c r="S9" t="n">
         <v>158.6512997408977</v>
       </c>
       <c r="T9" t="n">
-        <v>190.4607514814356</v>
+        <v>191.2803761338476</v>
       </c>
       <c r="U9" t="n">
         <v>225.8952243311651</v>
@@ -27995,7 +27995,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>198.896939461766</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28017,13 +28017,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>140.3775415572698</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>161.3463622442619</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H10" t="n">
         <v>156.9975751224423</v>
@@ -28062,13 +28062,13 @@
         <v>213.7659454939867</v>
       </c>
       <c r="T10" t="n">
-        <v>225.4323882309924</v>
+        <v>218.556342489281</v>
       </c>
       <c r="U10" t="n">
-        <v>286.286945936951</v>
+        <v>279.4109001952396</v>
       </c>
       <c r="V10" t="n">
-        <v>245.2615975821166</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.7086076103834</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28108,7 +28108,7 @@
         <v>31.64467552203732</v>
       </c>
       <c r="I11" t="n">
-        <v>12.44588451515116</v>
+        <v>12.44588451515111</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>31.64467552203732</v>
+        <v>31.64467552203728</v>
       </c>
       <c r="C14" t="n">
-        <v>31.64467552203732</v>
+        <v>31.64467552203728</v>
       </c>
       <c r="D14" t="n">
-        <v>31.64467552203732</v>
+        <v>31.64467552203728</v>
       </c>
       <c r="E14" t="n">
-        <v>31.64467552203732</v>
+        <v>31.64467552203728</v>
       </c>
       <c r="F14" t="n">
-        <v>31.64467552203732</v>
+        <v>31.64467552203728</v>
       </c>
       <c r="G14" t="n">
-        <v>31.64467552203732</v>
+        <v>31.64467552203728</v>
       </c>
       <c r="H14" t="n">
-        <v>31.64467552203732</v>
+        <v>31.64467552203728</v>
       </c>
       <c r="I14" t="n">
-        <v>12.44588451515116</v>
+        <v>12.44588451515111</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>31.64467552203732</v>
+        <v>31.64467552203728</v>
       </c>
       <c r="T14" t="n">
-        <v>31.64467552203732</v>
+        <v>31.64467552203728</v>
       </c>
       <c r="U14" t="n">
-        <v>31.64467552203732</v>
+        <v>31.64467552203728</v>
       </c>
       <c r="V14" t="n">
-        <v>31.64467552203732</v>
+        <v>31.64467552203728</v>
       </c>
       <c r="W14" t="n">
-        <v>31.64467552203732</v>
+        <v>31.64467552203728</v>
       </c>
       <c r="X14" t="n">
-        <v>31.64467552203732</v>
+        <v>31.64467552203728</v>
       </c>
       <c r="Y14" t="n">
-        <v>31.64467552203732</v>
+        <v>31.64467552203728</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>31.64467552203732</v>
+        <v>31.64467552203728</v>
       </c>
       <c r="C16" t="n">
-        <v>31.64467552203732</v>
+        <v>31.64467552203728</v>
       </c>
       <c r="D16" t="n">
-        <v>31.64467552203732</v>
+        <v>31.64467552203728</v>
       </c>
       <c r="E16" t="n">
-        <v>31.64467552203732</v>
+        <v>31.64467552203728</v>
       </c>
       <c r="F16" t="n">
-        <v>31.64467552203732</v>
+        <v>31.64467552203728</v>
       </c>
       <c r="G16" t="n">
-        <v>31.64467552203732</v>
+        <v>31.64467552203728</v>
       </c>
       <c r="H16" t="n">
-        <v>31.64467552203732</v>
+        <v>31.64467552203728</v>
       </c>
       <c r="I16" t="n">
-        <v>31.64467552203732</v>
+        <v>31.64467552203728</v>
       </c>
       <c r="J16" t="n">
-        <v>31.64467552203732</v>
+        <v>31.64467552203728</v>
       </c>
       <c r="K16" t="n">
-        <v>31.64467552203732</v>
+        <v>31.64467552203728</v>
       </c>
       <c r="L16" t="n">
-        <v>31.64467552203732</v>
+        <v>31.64467552203728</v>
       </c>
       <c r="M16" t="n">
-        <v>31.64467552203732</v>
+        <v>31.64467552203728</v>
       </c>
       <c r="N16" t="n">
-        <v>31.64467552203732</v>
+        <v>31.64467552203728</v>
       </c>
       <c r="O16" t="n">
-        <v>31.64467552203732</v>
+        <v>31.64467552203728</v>
       </c>
       <c r="P16" t="n">
-        <v>31.64467552203732</v>
+        <v>31.64467552203728</v>
       </c>
       <c r="Q16" t="n">
-        <v>31.64467552203732</v>
+        <v>31.64467552203728</v>
       </c>
       <c r="R16" t="n">
-        <v>31.64467552203732</v>
+        <v>31.64467552203728</v>
       </c>
       <c r="S16" t="n">
-        <v>31.64467552203732</v>
+        <v>31.64467552203728</v>
       </c>
       <c r="T16" t="n">
-        <v>31.64467552203732</v>
+        <v>31.64467552203728</v>
       </c>
       <c r="U16" t="n">
-        <v>31.64467552203732</v>
+        <v>31.64467552203728</v>
       </c>
       <c r="V16" t="n">
-        <v>31.64467552203732</v>
+        <v>31.64467552203728</v>
       </c>
       <c r="W16" t="n">
-        <v>31.64467552203732</v>
+        <v>31.64467552203728</v>
       </c>
       <c r="X16" t="n">
-        <v>31.64467552203732</v>
+        <v>31.64467552203728</v>
       </c>
       <c r="Y16" t="n">
-        <v>31.64467552203732</v>
+        <v>31.64467552203728</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="C17" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="D17" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="E17" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="F17" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="G17" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="H17" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="I17" t="n">
-        <v>12.44588451515116</v>
+        <v>12.44588451515111</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="T17" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="U17" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="V17" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="W17" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="X17" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="C19" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="D19" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="E19" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="F19" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="G19" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="H19" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="I19" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="J19" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="K19" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="L19" t="n">
-        <v>28.99092744841209</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="M19" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="N19" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="O19" t="n">
-        <v>31.75844887486382</v>
+        <v>28.99092744841391</v>
       </c>
       <c r="P19" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="R19" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="S19" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="T19" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="U19" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="V19" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="W19" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="X19" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="C20" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="D20" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="E20" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="F20" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="G20" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="H20" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="I20" t="n">
         <v>12.44588451515111</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="T20" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="U20" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="V20" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="W20" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="X20" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="C22" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="D22" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="E22" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="F22" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="G22" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="H22" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="I22" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="J22" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="K22" t="n">
-        <v>31.75844887486382</v>
+        <v>28.990927448414</v>
       </c>
       <c r="L22" t="n">
-        <v>28.9909274484113</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="M22" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="N22" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="O22" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="P22" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="R22" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="S22" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="T22" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="U22" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="V22" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="W22" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="X22" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.75844887486382</v>
+        <v>31.75844887486367</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.75844887486381</v>
+        <v>31.75844887486369</v>
       </c>
       <c r="C23" t="n">
-        <v>31.75844887486381</v>
+        <v>31.75844887486369</v>
       </c>
       <c r="D23" t="n">
-        <v>31.75844887486381</v>
+        <v>31.75844887486369</v>
       </c>
       <c r="E23" t="n">
-        <v>31.75844887486381</v>
+        <v>31.75844887486369</v>
       </c>
       <c r="F23" t="n">
-        <v>31.75844887486381</v>
+        <v>31.75844887486369</v>
       </c>
       <c r="G23" t="n">
-        <v>31.75844887486381</v>
+        <v>31.75844887486369</v>
       </c>
       <c r="H23" t="n">
-        <v>31.75844887486381</v>
+        <v>31.75844887486369</v>
       </c>
       <c r="I23" t="n">
         <v>12.44588451515111</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.75844887486381</v>
+        <v>31.75844887486369</v>
       </c>
       <c r="T23" t="n">
-        <v>31.75844887486381</v>
+        <v>31.75844887486369</v>
       </c>
       <c r="U23" t="n">
-        <v>31.75844887486381</v>
+        <v>31.75844887486369</v>
       </c>
       <c r="V23" t="n">
-        <v>31.75844887486381</v>
+        <v>31.75844887486369</v>
       </c>
       <c r="W23" t="n">
-        <v>31.75844887486381</v>
+        <v>31.75844887486369</v>
       </c>
       <c r="X23" t="n">
-        <v>31.75844887486381</v>
+        <v>31.75844887486369</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.75844887486381</v>
+        <v>31.75844887486369</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.75844887486381</v>
+        <v>31.75844887486369</v>
       </c>
       <c r="C25" t="n">
-        <v>31.75844887486381</v>
+        <v>31.75844887486369</v>
       </c>
       <c r="D25" t="n">
-        <v>31.75844887486381</v>
+        <v>31.75844887486369</v>
       </c>
       <c r="E25" t="n">
-        <v>31.75844887486381</v>
+        <v>31.75844887486369</v>
       </c>
       <c r="F25" t="n">
-        <v>31.75844887486381</v>
+        <v>31.75844887486369</v>
       </c>
       <c r="G25" t="n">
-        <v>31.75844887486381</v>
+        <v>31.75844887486369</v>
       </c>
       <c r="H25" t="n">
-        <v>31.75844887486381</v>
+        <v>31.75844887486369</v>
       </c>
       <c r="I25" t="n">
-        <v>31.75844887486381</v>
+        <v>31.75844887486369</v>
       </c>
       <c r="J25" t="n">
-        <v>31.75844887486381</v>
+        <v>31.75844887486369</v>
       </c>
       <c r="K25" t="n">
-        <v>31.75844887486381</v>
+        <v>31.75844887486369</v>
       </c>
       <c r="L25" t="n">
-        <v>31.75844887486381</v>
+        <v>28.99092744841397</v>
       </c>
       <c r="M25" t="n">
-        <v>28.99092744841164</v>
+        <v>31.75844887486369</v>
       </c>
       <c r="N25" t="n">
-        <v>31.75844887486381</v>
+        <v>31.75844887486369</v>
       </c>
       <c r="O25" t="n">
-        <v>31.75844887486381</v>
+        <v>31.75844887486369</v>
       </c>
       <c r="P25" t="n">
-        <v>31.75844887486381</v>
+        <v>31.75844887486369</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.75844887486381</v>
+        <v>31.75844887486369</v>
       </c>
       <c r="R25" t="n">
-        <v>31.75844887486381</v>
+        <v>31.75844887486369</v>
       </c>
       <c r="S25" t="n">
-        <v>31.75844887486381</v>
+        <v>31.75844887486369</v>
       </c>
       <c r="T25" t="n">
-        <v>31.75844887486381</v>
+        <v>31.75844887486369</v>
       </c>
       <c r="U25" t="n">
-        <v>31.75844887486381</v>
+        <v>31.75844887486369</v>
       </c>
       <c r="V25" t="n">
-        <v>31.75844887486381</v>
+        <v>31.75844887486369</v>
       </c>
       <c r="W25" t="n">
-        <v>31.75844887486381</v>
+        <v>31.75844887486369</v>
       </c>
       <c r="X25" t="n">
-        <v>31.75844887486381</v>
+        <v>31.75844887486369</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.75844887486381</v>
+        <v>31.75844887486369</v>
       </c>
     </row>
     <row r="26">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.64467552203729</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="C29" t="n">
-        <v>31.64467552203729</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="D29" t="n">
-        <v>31.64467552203729</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="E29" t="n">
-        <v>31.64467552203729</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="F29" t="n">
-        <v>31.64467552203729</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="G29" t="n">
-        <v>31.64467552203729</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="H29" t="n">
-        <v>31.64467552203729</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="I29" t="n">
         <v>12.44588451515111</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.64467552203729</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="T29" t="n">
-        <v>31.64467552203729</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="U29" t="n">
-        <v>31.64467552203729</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="V29" t="n">
-        <v>31.64467552203729</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="W29" t="n">
-        <v>31.64467552203729</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="X29" t="n">
-        <v>31.64467552203729</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.64467552203729</v>
+        <v>31.6446755220373</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.64467552203729</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="C31" t="n">
-        <v>31.64467552203729</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="D31" t="n">
-        <v>31.64467552203729</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="E31" t="n">
-        <v>31.64467552203729</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="F31" t="n">
-        <v>31.64467552203729</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="G31" t="n">
-        <v>31.64467552203729</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="H31" t="n">
-        <v>31.64467552203729</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="I31" t="n">
-        <v>31.64467552203729</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="J31" t="n">
-        <v>31.64467552203729</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="K31" t="n">
-        <v>31.64467552203729</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="L31" t="n">
-        <v>31.64467552203729</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="M31" t="n">
-        <v>31.64467552203729</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="N31" t="n">
-        <v>31.64467552203729</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="O31" t="n">
-        <v>31.64467552203729</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="P31" t="n">
-        <v>31.64467552203729</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.64467552203729</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="R31" t="n">
-        <v>31.64467552203729</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="S31" t="n">
-        <v>31.64467552203729</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="T31" t="n">
-        <v>31.64467552203729</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="U31" t="n">
-        <v>31.64467552203729</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="V31" t="n">
-        <v>31.64467552203729</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="W31" t="n">
-        <v>31.64467552203729</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="X31" t="n">
-        <v>31.64467552203729</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.64467552203729</v>
+        <v>31.6446755220373</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.7584488748638</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="C32" t="n">
-        <v>31.7584488748638</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="D32" t="n">
-        <v>31.7584488748638</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="E32" t="n">
-        <v>31.7584488748638</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="F32" t="n">
-        <v>31.7584488748638</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="G32" t="n">
-        <v>31.7584488748638</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="H32" t="n">
-        <v>31.7584488748638</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="I32" t="n">
         <v>12.44588451515111</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.7584488748638</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="T32" t="n">
-        <v>31.7584488748638</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="U32" t="n">
-        <v>31.7584488748638</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="V32" t="n">
-        <v>31.7584488748638</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="W32" t="n">
-        <v>31.7584488748638</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="X32" t="n">
-        <v>31.7584488748638</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.7584488748638</v>
+        <v>31.75844887486367</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.7584488748638</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="C34" t="n">
-        <v>31.7584488748638</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="D34" t="n">
-        <v>31.7584488748638</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="E34" t="n">
-        <v>31.7584488748638</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="F34" t="n">
-        <v>31.7584488748638</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="G34" t="n">
-        <v>31.7584488748638</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="H34" t="n">
-        <v>31.7584488748638</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="I34" t="n">
-        <v>31.7584488748638</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="J34" t="n">
-        <v>28.99092744841161</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="K34" t="n">
-        <v>31.7584488748638</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="L34" t="n">
-        <v>31.7584488748638</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="M34" t="n">
-        <v>31.7584488748638</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="N34" t="n">
-        <v>31.7584488748638</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="O34" t="n">
-        <v>31.7584488748638</v>
+        <v>28.9909274484146</v>
       </c>
       <c r="P34" t="n">
-        <v>31.7584488748638</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.7584488748638</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="R34" t="n">
-        <v>31.7584488748638</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="S34" t="n">
-        <v>31.7584488748638</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="T34" t="n">
-        <v>31.7584488748638</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="U34" t="n">
-        <v>31.7584488748638</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="V34" t="n">
-        <v>31.7584488748638</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="W34" t="n">
-        <v>31.7584488748638</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="X34" t="n">
-        <v>31.7584488748638</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.7584488748638</v>
+        <v>31.75844887486367</v>
       </c>
     </row>
     <row r="35">
@@ -30174,7 +30174,7 @@
         <v>31.75844887486373</v>
       </c>
       <c r="M37" t="n">
-        <v>31.75844887486373</v>
+        <v>28.990927448413</v>
       </c>
       <c r="N37" t="n">
         <v>31.75844887486373</v>
@@ -30186,7 +30186,7 @@
         <v>31.75844887486373</v>
       </c>
       <c r="Q37" t="n">
-        <v>28.99092744841288</v>
+        <v>31.75844887486373</v>
       </c>
       <c r="R37" t="n">
         <v>31.75844887486373</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.75844887486372</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="C38" t="n">
-        <v>31.75844887486372</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="D38" t="n">
-        <v>31.75844887486372</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="E38" t="n">
-        <v>31.75844887486372</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="F38" t="n">
-        <v>31.75844887486372</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="G38" t="n">
-        <v>31.75844887486372</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="H38" t="n">
-        <v>31.75844887486372</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="I38" t="n">
         <v>12.44588451515111</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.75844887486372</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="T38" t="n">
-        <v>31.75844887486372</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="U38" t="n">
-        <v>31.75844887486372</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="V38" t="n">
-        <v>31.75844887486372</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="W38" t="n">
-        <v>31.75844887486372</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="X38" t="n">
-        <v>31.75844887486372</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.75844887486372</v>
+        <v>31.75844887486367</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.75844887486372</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="C40" t="n">
-        <v>31.75844887486372</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="D40" t="n">
-        <v>31.75844887486372</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="E40" t="n">
-        <v>31.75844887486372</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="F40" t="n">
-        <v>31.75844887486372</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="G40" t="n">
-        <v>31.75844887486372</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="H40" t="n">
-        <v>31.75844887486372</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="I40" t="n">
-        <v>31.75844887486372</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="J40" t="n">
-        <v>31.75844887486372</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="K40" t="n">
-        <v>28.99092744841303</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="L40" t="n">
-        <v>31.75844887486372</v>
+        <v>28.99092744841397</v>
       </c>
       <c r="M40" t="n">
-        <v>31.75844887486372</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="N40" t="n">
-        <v>31.75844887486372</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="O40" t="n">
-        <v>31.75844887486372</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="P40" t="n">
-        <v>31.75844887486372</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.75844887486372</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="R40" t="n">
-        <v>31.75844887486372</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="S40" t="n">
-        <v>31.75844887486372</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="T40" t="n">
-        <v>31.75844887486372</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="U40" t="n">
-        <v>31.75844887486372</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="V40" t="n">
-        <v>31.75844887486372</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="W40" t="n">
-        <v>31.75844887486372</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="X40" t="n">
-        <v>31.75844887486372</v>
+        <v>31.75844887486367</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.75844887486372</v>
+        <v>31.75844887486367</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.64467552203734</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="C41" t="n">
-        <v>31.64467552203734</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="D41" t="n">
-        <v>31.64467552203734</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="E41" t="n">
-        <v>31.64467552203734</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="F41" t="n">
-        <v>31.64467552203734</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="G41" t="n">
-        <v>31.64467552203734</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="H41" t="n">
-        <v>31.64467552203734</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="I41" t="n">
         <v>12.44588451515111</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.64467552203734</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="T41" t="n">
-        <v>31.64467552203734</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="U41" t="n">
-        <v>31.64467552203734</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="V41" t="n">
-        <v>31.64467552203734</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="W41" t="n">
-        <v>31.64467552203734</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="X41" t="n">
-        <v>31.64467552203734</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.64467552203734</v>
+        <v>31.6446755220373</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.64467552203734</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="C43" t="n">
-        <v>31.64467552203734</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="D43" t="n">
-        <v>31.64467552203734</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="E43" t="n">
-        <v>31.64467552203734</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="F43" t="n">
-        <v>31.64467552203734</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="G43" t="n">
-        <v>31.64467552203734</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="H43" t="n">
-        <v>31.64467552203734</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="I43" t="n">
-        <v>31.64467552203734</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="J43" t="n">
-        <v>31.64467552203734</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="K43" t="n">
-        <v>31.64467552203734</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="L43" t="n">
-        <v>31.64467552203734</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="M43" t="n">
-        <v>31.64467552203734</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="N43" t="n">
-        <v>31.64467552203734</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="O43" t="n">
-        <v>31.64467552203734</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="P43" t="n">
-        <v>31.64467552203734</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.64467552203734</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="R43" t="n">
-        <v>31.64467552203734</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="S43" t="n">
-        <v>31.64467552203734</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="T43" t="n">
-        <v>31.64467552203734</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="U43" t="n">
-        <v>31.64467552203734</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="V43" t="n">
-        <v>31.64467552203734</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="W43" t="n">
-        <v>31.64467552203734</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="X43" t="n">
-        <v>31.64467552203734</v>
+        <v>31.6446755220373</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.64467552203734</v>
+        <v>31.6446755220373</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.64467552203734</v>
+        <v>31.64467552203733</v>
       </c>
       <c r="C44" t="n">
-        <v>31.64467552203734</v>
+        <v>31.64467552203733</v>
       </c>
       <c r="D44" t="n">
-        <v>31.64467552203734</v>
+        <v>31.64467552203733</v>
       </c>
       <c r="E44" t="n">
-        <v>31.64467552203734</v>
+        <v>31.64467552203733</v>
       </c>
       <c r="F44" t="n">
-        <v>31.64467552203734</v>
+        <v>31.64467552203733</v>
       </c>
       <c r="G44" t="n">
-        <v>31.64467552203734</v>
+        <v>31.64467552203733</v>
       </c>
       <c r="H44" t="n">
-        <v>31.64467552203734</v>
+        <v>31.64467552203733</v>
       </c>
       <c r="I44" t="n">
-        <v>12.44588451515111</v>
+        <v>12.44588451515114</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.64467552203734</v>
+        <v>31.64467552203733</v>
       </c>
       <c r="T44" t="n">
-        <v>31.64467552203734</v>
+        <v>31.64467552203733</v>
       </c>
       <c r="U44" t="n">
-        <v>31.64467552203734</v>
+        <v>31.64467552203733</v>
       </c>
       <c r="V44" t="n">
-        <v>31.64467552203734</v>
+        <v>31.64467552203733</v>
       </c>
       <c r="W44" t="n">
-        <v>31.64467552203734</v>
+        <v>31.64467552203733</v>
       </c>
       <c r="X44" t="n">
-        <v>31.64467552203734</v>
+        <v>31.64467552203733</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.64467552203734</v>
+        <v>31.64467552203733</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.64467552203734</v>
+        <v>31.64467552203733</v>
       </c>
       <c r="C46" t="n">
-        <v>31.64467552203734</v>
+        <v>31.64467552203733</v>
       </c>
       <c r="D46" t="n">
-        <v>31.64467552203734</v>
+        <v>31.64467552203733</v>
       </c>
       <c r="E46" t="n">
-        <v>31.64467552203734</v>
+        <v>31.64467552203733</v>
       </c>
       <c r="F46" t="n">
-        <v>31.64467552203734</v>
+        <v>31.64467552203733</v>
       </c>
       <c r="G46" t="n">
-        <v>31.64467552203734</v>
+        <v>31.64467552203733</v>
       </c>
       <c r="H46" t="n">
-        <v>31.64467552203734</v>
+        <v>31.64467552203733</v>
       </c>
       <c r="I46" t="n">
-        <v>31.64467552203734</v>
+        <v>31.64467552203733</v>
       </c>
       <c r="J46" t="n">
-        <v>31.64467552203734</v>
+        <v>31.64467552203733</v>
       </c>
       <c r="K46" t="n">
-        <v>31.64467552203734</v>
+        <v>31.64467552203733</v>
       </c>
       <c r="L46" t="n">
-        <v>31.64467552203734</v>
+        <v>31.64467552203733</v>
       </c>
       <c r="M46" t="n">
-        <v>31.64467552203734</v>
+        <v>31.64467552203733</v>
       </c>
       <c r="N46" t="n">
-        <v>31.64467552203734</v>
+        <v>31.64467552203733</v>
       </c>
       <c r="O46" t="n">
-        <v>31.64467552203734</v>
+        <v>31.64467552203733</v>
       </c>
       <c r="P46" t="n">
-        <v>31.64467552203734</v>
+        <v>31.64467552203733</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.64467552203734</v>
+        <v>31.64467552203733</v>
       </c>
       <c r="R46" t="n">
-        <v>31.64467552203734</v>
+        <v>31.64467552203733</v>
       </c>
       <c r="S46" t="n">
-        <v>31.64467552203734</v>
+        <v>31.64467552203733</v>
       </c>
       <c r="T46" t="n">
-        <v>31.64467552203734</v>
+        <v>31.64467552203733</v>
       </c>
       <c r="U46" t="n">
-        <v>31.64467552203734</v>
+        <v>31.64467552203733</v>
       </c>
       <c r="V46" t="n">
-        <v>31.64467552203734</v>
+        <v>31.64467552203733</v>
       </c>
       <c r="W46" t="n">
-        <v>31.64467552203734</v>
+        <v>31.64467552203733</v>
       </c>
       <c r="X46" t="n">
-        <v>31.64467552203734</v>
+        <v>31.64467552203733</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.64467552203734</v>
+        <v>31.64467552203733</v>
       </c>
     </row>
   </sheetData>
@@ -31048,7 +31048,7 @@
         <v>43.1844789362864</v>
       </c>
       <c r="J2" t="n">
-        <v>95.07110224028629</v>
+        <v>95.07110224028631</v>
       </c>
       <c r="K2" t="n">
         <v>142.4869376173177</v>
@@ -31121,7 +31121,7 @@
         <v>0.5993316447606933</v>
       </c>
       <c r="H3" t="n">
-        <v>5.788281937557224</v>
+        <v>5.788281937557223</v>
       </c>
       <c r="I3" t="n">
         <v>20.63488338320808</v>
@@ -31160,7 +31160,7 @@
         <v>2.415727111995952</v>
       </c>
       <c r="U3" t="n">
-        <v>0.03942971347109827</v>
+        <v>0.03942971347109826</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,7 +31197,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5024595181125744</v>
+        <v>0.5024595181125743</v>
       </c>
       <c r="H4" t="n">
         <v>4.467321897400891</v>
@@ -31206,7 +31206,7 @@
         <v>15.11032805378542</v>
       </c>
       <c r="J4" t="n">
-        <v>35.523887930559</v>
+        <v>35.52388793055901</v>
       </c>
       <c r="K4" t="n">
         <v>58.37666037707908</v>
@@ -31227,7 +31227,7 @@
         <v>60.77019480881533</v>
       </c>
       <c r="Q4" t="n">
-        <v>42.07413292122656</v>
+        <v>42.07413292122657</v>
       </c>
       <c r="R4" t="n">
         <v>22.59240705986175</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.246058805238128</v>
+        <v>1.24605880523813</v>
       </c>
       <c r="H5" t="n">
-        <v>12.76119973914498</v>
+        <v>12.76119973914501</v>
       </c>
       <c r="I5" t="n">
-        <v>48.03868208894296</v>
+        <v>48.03868208894307</v>
       </c>
       <c r="J5" t="n">
-        <v>105.7576835210796</v>
+        <v>105.7576835210799</v>
       </c>
       <c r="K5" t="n">
-        <v>158.5033527468096</v>
+        <v>158.50335274681</v>
       </c>
       <c r="L5" t="n">
-        <v>196.637424907616</v>
+        <v>196.6374249076164</v>
       </c>
       <c r="M5" t="n">
-        <v>218.7970231852695</v>
+        <v>218.79702318527</v>
       </c>
       <c r="N5" t="n">
-        <v>222.3373877656524</v>
+        <v>222.3373877656529</v>
       </c>
       <c r="O5" t="n">
-        <v>209.9468905210657</v>
+        <v>209.9468905210662</v>
       </c>
       <c r="P5" t="n">
-        <v>179.1848137667494</v>
+        <v>179.1848137667498</v>
       </c>
       <c r="Q5" t="n">
-        <v>134.5603328041589</v>
+        <v>134.5603328041592</v>
       </c>
       <c r="R5" t="n">
-        <v>78.2727414245396</v>
+        <v>78.27274142453977</v>
       </c>
       <c r="S5" t="n">
-        <v>28.39456502436386</v>
+        <v>28.39456502436392</v>
       </c>
       <c r="T5" t="n">
-        <v>5.454622419929906</v>
+        <v>5.454622419929918</v>
       </c>
       <c r="U5" t="n">
-        <v>0.09968470441905018</v>
+        <v>0.0996847044190504</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6667002371611365</v>
+        <v>0.6667002371611379</v>
       </c>
       <c r="H6" t="n">
-        <v>6.438920711529924</v>
+        <v>6.438920711529939</v>
       </c>
       <c r="I6" t="n">
-        <v>22.95437220050404</v>
+        <v>22.95437220050409</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98855179249141</v>
+        <v>62.98855179249155</v>
       </c>
       <c r="K6" t="n">
-        <v>107.6574676822875</v>
+        <v>107.6574676822878</v>
       </c>
       <c r="L6" t="n">
-        <v>144.7587510555354</v>
+        <v>144.7587510555357</v>
       </c>
       <c r="M6" t="n">
-        <v>148.5996418829705</v>
+        <v>148.5996418829708</v>
       </c>
       <c r="N6" t="n">
-        <v>137.8073200442855</v>
+        <v>137.8073200442858</v>
       </c>
       <c r="O6" t="n">
-        <v>149.0618524053966</v>
+        <v>149.061852405397</v>
       </c>
       <c r="P6" t="n">
-        <v>127.3105040593051</v>
+        <v>127.3105040593054</v>
       </c>
       <c r="Q6" t="n">
-        <v>85.10370044884964</v>
+        <v>85.10370044884982</v>
       </c>
       <c r="R6" t="n">
-        <v>41.39389718093443</v>
+        <v>41.39389718093452</v>
       </c>
       <c r="S6" t="n">
-        <v>12.38366449288338</v>
+        <v>12.38366449288341</v>
       </c>
       <c r="T6" t="n">
-        <v>2.68726981557493</v>
+        <v>2.687269815574937</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04386185770796952</v>
+        <v>0.04386185770796962</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5589390829234145</v>
+        <v>0.5589390829234158</v>
       </c>
       <c r="H7" t="n">
-        <v>4.969476573628181</v>
+        <v>4.969476573628191</v>
       </c>
       <c r="I7" t="n">
-        <v>16.80882260282414</v>
+        <v>16.80882260282418</v>
       </c>
       <c r="J7" t="n">
-        <v>39.51699316268541</v>
+        <v>39.51699316268549</v>
       </c>
       <c r="K7" t="n">
-        <v>64.93855890692033</v>
+        <v>64.93855890692048</v>
       </c>
       <c r="L7" t="n">
-        <v>83.09899783754112</v>
+        <v>83.0989978375413</v>
       </c>
       <c r="M7" t="n">
-        <v>87.61624188044033</v>
+        <v>87.61624188044053</v>
       </c>
       <c r="N7" t="n">
-        <v>85.53292348045312</v>
+        <v>85.53292348045332</v>
       </c>
       <c r="O7" t="n">
-        <v>79.00349873902957</v>
+        <v>79.00349873902975</v>
       </c>
       <c r="P7" t="n">
-        <v>67.60114144739185</v>
+        <v>67.60114144739201</v>
       </c>
       <c r="Q7" t="n">
-        <v>46.80352629825065</v>
+        <v>46.80352629825076</v>
       </c>
       <c r="R7" t="n">
-        <v>25.1319336739928</v>
+        <v>25.13193367399285</v>
       </c>
       <c r="S7" t="n">
-        <v>9.740783836038048</v>
+        <v>9.740783836038069</v>
       </c>
       <c r="T7" t="n">
-        <v>2.388194263400043</v>
+        <v>2.388194263400049</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03048758634127719</v>
+        <v>0.03048758634127726</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.136631996764271</v>
+        <v>5.136631996764272</v>
       </c>
       <c r="H11" t="n">
-        <v>52.6055324368621</v>
+        <v>52.60553243686212</v>
       </c>
       <c r="I11" t="n">
-        <v>198.0300050552547</v>
+        <v>198.0300050552548</v>
       </c>
       <c r="J11" t="n">
-        <v>435.9652199353719</v>
+        <v>435.9652199353721</v>
       </c>
       <c r="K11" t="n">
-        <v>653.3988523584036</v>
+        <v>653.3988523584038</v>
       </c>
       <c r="L11" t="n">
-        <v>810.5990538293784</v>
+        <v>810.5990538293787</v>
       </c>
       <c r="M11" t="n">
-        <v>901.947633101835</v>
+        <v>901.9476331018352</v>
       </c>
       <c r="N11" t="n">
-        <v>916.5420887626415</v>
+        <v>916.5420887626418</v>
       </c>
       <c r="O11" t="n">
-        <v>865.4647043448167</v>
+        <v>865.4647043448171</v>
       </c>
       <c r="P11" t="n">
-        <v>738.6541019246987</v>
+        <v>738.6541019246989</v>
       </c>
       <c r="Q11" t="n">
-        <v>554.698468540578</v>
+        <v>554.6984685405782</v>
       </c>
       <c r="R11" t="n">
-        <v>322.6639596667439</v>
+        <v>322.663959666744</v>
       </c>
       <c r="S11" t="n">
-        <v>117.0510016262659</v>
+        <v>117.051001626266</v>
       </c>
       <c r="T11" t="n">
         <v>22.48560656583561</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4109305597411416</v>
+        <v>0.4109305597411417</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31829,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.748340412230998</v>
+        <v>2.748340412231</v>
       </c>
       <c r="H12" t="n">
-        <v>26.54318240233623</v>
+        <v>26.54318240233624</v>
       </c>
       <c r="I12" t="n">
-        <v>94.62487822812869</v>
+        <v>94.62487822812872</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>259.6578983327543</v>
       </c>
       <c r="K12" t="n">
-        <v>443.796705952231</v>
+        <v>443.7967059522312</v>
       </c>
       <c r="L12" t="n">
-        <v>596.7394390679632</v>
+        <v>596.7394390679633</v>
       </c>
       <c r="M12" t="n">
-        <v>696.3667790113367</v>
+        <v>602.9141923865079</v>
       </c>
       <c r="N12" t="n">
-        <v>714.7975355477456</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>653.9000979925219</v>
+        <v>653.9000979925221</v>
       </c>
       <c r="P12" t="n">
-        <v>216.5244918638189</v>
+        <v>524.8124774899704</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>350.8232427963641</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>170.638188050623</v>
       </c>
       <c r="S12" t="n">
-        <v>51.04921774472926</v>
+        <v>51.04921774472928</v>
       </c>
       <c r="T12" t="n">
         <v>11.07774052122933</v>
@@ -31911,46 +31911,46 @@
         <v>2.304116278876434</v>
       </c>
       <c r="H13" t="n">
-        <v>20.48568837037412</v>
+        <v>20.48568837037413</v>
       </c>
       <c r="I13" t="n">
-        <v>69.29106045930223</v>
+        <v>69.29106045930224</v>
       </c>
       <c r="J13" t="n">
         <v>162.9010209165639</v>
       </c>
       <c r="K13" t="n">
-        <v>267.6964185821892</v>
+        <v>267.6964185821893</v>
       </c>
       <c r="L13" t="n">
-        <v>342.5592511340473</v>
+        <v>342.5592511340474</v>
       </c>
       <c r="M13" t="n">
-        <v>361.180699969694</v>
+        <v>361.1806999696941</v>
       </c>
       <c r="N13" t="n">
-        <v>352.5926302029731</v>
+        <v>352.5926302029732</v>
       </c>
       <c r="O13" t="n">
-        <v>325.6763627633709</v>
+        <v>325.6763627633711</v>
       </c>
       <c r="P13" t="n">
         <v>278.6723906742915</v>
       </c>
       <c r="Q13" t="n">
-        <v>192.9383185884621</v>
+        <v>192.9383185884622</v>
       </c>
       <c r="R13" t="n">
         <v>103.6014465029349</v>
       </c>
       <c r="S13" t="n">
-        <v>40.15446278732838</v>
+        <v>40.15446278732839</v>
       </c>
       <c r="T13" t="n">
-        <v>9.844860464290214</v>
+        <v>9.844860464290218</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1256790697568965</v>
+        <v>0.1256790697568966</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.136631996764271</v>
+        <v>5.136631996764272</v>
       </c>
       <c r="H14" t="n">
-        <v>52.6055324368621</v>
+        <v>52.60553243686212</v>
       </c>
       <c r="I14" t="n">
-        <v>198.0300050552547</v>
+        <v>198.0300050552548</v>
       </c>
       <c r="J14" t="n">
-        <v>435.9652199353719</v>
+        <v>435.9652199353721</v>
       </c>
       <c r="K14" t="n">
-        <v>653.3988523584036</v>
+        <v>653.3988523584038</v>
       </c>
       <c r="L14" t="n">
-        <v>810.5990538293784</v>
+        <v>810.5990538293787</v>
       </c>
       <c r="M14" t="n">
-        <v>901.947633101835</v>
+        <v>901.9476331018352</v>
       </c>
       <c r="N14" t="n">
-        <v>916.5420887626415</v>
+        <v>916.5420887626418</v>
       </c>
       <c r="O14" t="n">
-        <v>865.4647043448167</v>
+        <v>865.4647043448171</v>
       </c>
       <c r="P14" t="n">
-        <v>738.6541019246987</v>
+        <v>738.6541019246989</v>
       </c>
       <c r="Q14" t="n">
-        <v>554.698468540578</v>
+        <v>554.6984685405782</v>
       </c>
       <c r="R14" t="n">
-        <v>322.6639596667439</v>
+        <v>322.663959666744</v>
       </c>
       <c r="S14" t="n">
-        <v>117.0510016262659</v>
+        <v>117.051001626266</v>
       </c>
       <c r="T14" t="n">
         <v>22.48560656583561</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4109305597411416</v>
+        <v>0.4109305597411417</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,43 +32066,43 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.748340412230998</v>
+        <v>2.748340412231</v>
       </c>
       <c r="H15" t="n">
-        <v>26.54318240233623</v>
+        <v>26.54318240233624</v>
       </c>
       <c r="I15" t="n">
-        <v>94.62487822812869</v>
+        <v>94.62487822812872</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>259.6578983327543</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>182.6850500252884</v>
       </c>
       <c r="L15" t="n">
-        <v>383.565251709341</v>
+        <v>596.7394390679633</v>
       </c>
       <c r="M15" t="n">
-        <v>696.3667790113367</v>
+        <v>696.3667790113369</v>
       </c>
       <c r="N15" t="n">
-        <v>714.7975355477456</v>
+        <v>714.7975355477458</v>
       </c>
       <c r="O15" t="n">
-        <v>653.9000979925219</v>
+        <v>653.9000979925221</v>
       </c>
       <c r="P15" t="n">
-        <v>524.8124774899703</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>350.823242796364</v>
+        <v>350.8232427963641</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>51.04921774472926</v>
+        <v>51.04921774472928</v>
       </c>
       <c r="T15" t="n">
         <v>11.07774052122933</v>
@@ -32148,46 +32148,46 @@
         <v>2.304116278876434</v>
       </c>
       <c r="H16" t="n">
-        <v>20.48568837037412</v>
+        <v>20.48568837037413</v>
       </c>
       <c r="I16" t="n">
-        <v>69.29106045930223</v>
+        <v>69.29106045930224</v>
       </c>
       <c r="J16" t="n">
         <v>162.9010209165639</v>
       </c>
       <c r="K16" t="n">
-        <v>267.6964185821892</v>
+        <v>267.6964185821893</v>
       </c>
       <c r="L16" t="n">
-        <v>342.5592511340473</v>
+        <v>342.5592511340474</v>
       </c>
       <c r="M16" t="n">
-        <v>361.180699969694</v>
+        <v>361.1806999696941</v>
       </c>
       <c r="N16" t="n">
-        <v>352.5926302029731</v>
+        <v>352.5926302029732</v>
       </c>
       <c r="O16" t="n">
-        <v>325.6763627633709</v>
+        <v>325.6763627633711</v>
       </c>
       <c r="P16" t="n">
         <v>278.6723906742915</v>
       </c>
       <c r="Q16" t="n">
-        <v>192.9383185884621</v>
+        <v>192.9383185884622</v>
       </c>
       <c r="R16" t="n">
         <v>103.6014465029349</v>
       </c>
       <c r="S16" t="n">
-        <v>40.15446278732838</v>
+        <v>40.15446278732839</v>
       </c>
       <c r="T16" t="n">
-        <v>9.844860464290214</v>
+        <v>9.844860464290218</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1256790697568965</v>
+        <v>0.1256790697568966</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.136631996764271</v>
+        <v>5.136631996764272</v>
       </c>
       <c r="H17" t="n">
-        <v>52.6055324368621</v>
+        <v>52.60553243686212</v>
       </c>
       <c r="I17" t="n">
-        <v>198.0300050552547</v>
+        <v>198.0300050552548</v>
       </c>
       <c r="J17" t="n">
-        <v>435.9652199353719</v>
+        <v>435.9652199353721</v>
       </c>
       <c r="K17" t="n">
-        <v>653.3988523584036</v>
+        <v>653.3988523584038</v>
       </c>
       <c r="L17" t="n">
-        <v>810.5990538293784</v>
+        <v>810.5990538293787</v>
       </c>
       <c r="M17" t="n">
-        <v>901.947633101835</v>
+        <v>901.9476331018352</v>
       </c>
       <c r="N17" t="n">
-        <v>916.5420887626415</v>
+        <v>916.5420887626418</v>
       </c>
       <c r="O17" t="n">
-        <v>865.4647043448167</v>
+        <v>865.4647043448171</v>
       </c>
       <c r="P17" t="n">
-        <v>738.6541019246987</v>
+        <v>738.6541019246989</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.698468540578</v>
+        <v>554.6984685405782</v>
       </c>
       <c r="R17" t="n">
-        <v>322.6639596667439</v>
+        <v>322.663959666744</v>
       </c>
       <c r="S17" t="n">
-        <v>117.0510016262659</v>
+        <v>117.051001626266</v>
       </c>
       <c r="T17" t="n">
         <v>22.48560656583561</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4109305597411416</v>
+        <v>0.4109305597411417</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,43 +32303,43 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.748340412230998</v>
+        <v>2.748340412231</v>
       </c>
       <c r="H18" t="n">
-        <v>26.54318240233623</v>
+        <v>26.54318240233624</v>
       </c>
       <c r="I18" t="n">
-        <v>94.62487822812869</v>
+        <v>94.62487822812872</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>259.6578983327543</v>
       </c>
       <c r="K18" t="n">
-        <v>443.796705952231</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>225.7862959565939</v>
       </c>
       <c r="M18" t="n">
-        <v>610.4636998762726</v>
+        <v>696.3667790113369</v>
       </c>
       <c r="N18" t="n">
-        <v>714.7975355477456</v>
+        <v>714.7975355477458</v>
       </c>
       <c r="O18" t="n">
-        <v>653.9000979925219</v>
+        <v>653.9000979925221</v>
       </c>
       <c r="P18" t="n">
-        <v>524.8124774899703</v>
+        <v>524.8124774899704</v>
       </c>
       <c r="Q18" t="n">
-        <v>350.823242796364</v>
+        <v>350.8232427963641</v>
       </c>
       <c r="R18" t="n">
-        <v>170.6381880506229</v>
+        <v>170.638188050623</v>
       </c>
       <c r="S18" t="n">
-        <v>51.04921774472926</v>
+        <v>51.04921774472928</v>
       </c>
       <c r="T18" t="n">
         <v>11.07774052122933</v>
@@ -32385,46 +32385,46 @@
         <v>2.304116278876434</v>
       </c>
       <c r="H19" t="n">
-        <v>20.48568837037412</v>
+        <v>20.48568837037413</v>
       </c>
       <c r="I19" t="n">
-        <v>69.29106045930223</v>
+        <v>69.29106045930224</v>
       </c>
       <c r="J19" t="n">
         <v>162.9010209165639</v>
       </c>
       <c r="K19" t="n">
-        <v>267.6964185821892</v>
+        <v>267.6964185821893</v>
       </c>
       <c r="L19" t="n">
-        <v>342.5592511340473</v>
+        <v>342.5592511340474</v>
       </c>
       <c r="M19" t="n">
-        <v>361.180699969694</v>
+        <v>361.1806999696941</v>
       </c>
       <c r="N19" t="n">
-        <v>352.5926302029731</v>
+        <v>352.5926302029732</v>
       </c>
       <c r="O19" t="n">
-        <v>325.6763627633709</v>
+        <v>325.6763627633711</v>
       </c>
       <c r="P19" t="n">
         <v>278.6723906742915</v>
       </c>
       <c r="Q19" t="n">
-        <v>192.9383185884621</v>
+        <v>192.9383185884622</v>
       </c>
       <c r="R19" t="n">
         <v>103.6014465029349</v>
       </c>
       <c r="S19" t="n">
-        <v>40.15446278732838</v>
+        <v>40.15446278732839</v>
       </c>
       <c r="T19" t="n">
-        <v>9.844860464290214</v>
+        <v>9.844860464290218</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1256790697568965</v>
+        <v>0.1256790697568966</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,22 +32549,22 @@
         <v>94.62487822812872</v>
       </c>
       <c r="J21" t="n">
-        <v>259.6578983327543</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>225.0733551510787</v>
+        <v>443.7967059522312</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>596.7394390679633</v>
       </c>
       <c r="M21" t="n">
         <v>696.3667790113369</v>
       </c>
       <c r="N21" t="n">
-        <v>714.7975355477458</v>
+        <v>682.0132506726693</v>
       </c>
       <c r="O21" t="n">
-        <v>653.9000979925221</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>524.8124774899704</v>
@@ -32786,7 +32786,7 @@
         <v>94.62487822812872</v>
       </c>
       <c r="J24" t="n">
-        <v>259.6578983327543</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>443.7967059522312</v>
@@ -32795,10 +32795,10 @@
         <v>596.7394390679633</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>696.3667790113369</v>
       </c>
       <c r="N24" t="n">
-        <v>714.7975355477458</v>
+        <v>170.7093971245917</v>
       </c>
       <c r="O24" t="n">
         <v>653.9000979925221</v>
@@ -32807,7 +32807,7 @@
         <v>524.8124774899704</v>
       </c>
       <c r="Q24" t="n">
-        <v>228.1475777964411</v>
+        <v>350.8232427963641</v>
       </c>
       <c r="R24" t="n">
         <v>170.638188050623</v>
@@ -33023,19 +33023,19 @@
         <v>94.62487822812872</v>
       </c>
       <c r="J27" t="n">
-        <v>259.6578983327543</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>443.7967059522312</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>596.7394390679633</v>
       </c>
       <c r="M27" t="n">
         <v>696.3667790113369</v>
       </c>
       <c r="N27" t="n">
-        <v>714.7975355477458</v>
+        <v>170.7093971245921</v>
       </c>
       <c r="O27" t="n">
         <v>653.9000979925221</v>
@@ -33044,10 +33044,10 @@
         <v>524.8124774899704</v>
       </c>
       <c r="Q27" t="n">
-        <v>157.0585760818708</v>
+        <v>350.8232427963641</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>170.638188050623</v>
       </c>
       <c r="S27" t="n">
         <v>51.04921774472928</v>
@@ -33260,22 +33260,22 @@
         <v>94.62487822812872</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>259.6578983327543</v>
       </c>
       <c r="K30" t="n">
-        <v>411.0124210771548</v>
+        <v>321.1210409523083</v>
       </c>
       <c r="L30" t="n">
         <v>596.7394390679633</v>
       </c>
       <c r="M30" t="n">
-        <v>696.3667790113369</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>714.7975355477458</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>653.9000979925221</v>
       </c>
       <c r="P30" t="n">
         <v>524.8124774899704</v>
@@ -33503,16 +33503,16 @@
         <v>443.7967059522312</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>596.7394390679633</v>
       </c>
       <c r="M33" t="n">
-        <v>696.3667790113369</v>
+        <v>530.7622224701729</v>
       </c>
       <c r="N33" t="n">
         <v>714.7975355477458</v>
       </c>
       <c r="O33" t="n">
-        <v>435.1767471913694</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>524.8124774899704</v>
@@ -33737,25 +33737,25 @@
         <v>259.6578983327543</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>443.7967059522312</v>
       </c>
       <c r="L36" t="n">
-        <v>596.7394390679633</v>
+        <v>431.1348825267993</v>
       </c>
       <c r="M36" t="n">
         <v>696.3667790113369</v>
       </c>
       <c r="N36" t="n">
-        <v>554.685861146719</v>
+        <v>714.7975355477458</v>
       </c>
       <c r="O36" t="n">
-        <v>653.9000979925221</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>524.8124774899704</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>350.8232427963641</v>
       </c>
       <c r="R36" t="n">
         <v>170.638188050623</v>
@@ -33971,25 +33971,25 @@
         <v>94.62487822812872</v>
       </c>
       <c r="J39" t="n">
-        <v>259.6578983327543</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>443.7967059522312</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>596.7394390679633</v>
       </c>
       <c r="M39" t="n">
-        <v>696.3667790113369</v>
+        <v>663.5824941362603</v>
       </c>
       <c r="N39" t="n">
         <v>714.7975355477458</v>
       </c>
       <c r="O39" t="n">
-        <v>653.9000979925221</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>306.0891266888177</v>
+        <v>524.8124774899704</v>
       </c>
       <c r="Q39" t="n">
         <v>350.8232427963641</v>
@@ -34208,16 +34208,16 @@
         <v>94.62487822812872</v>
       </c>
       <c r="J42" t="n">
-        <v>259.6578983327543</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>443.7967059522312</v>
       </c>
       <c r="L42" t="n">
-        <v>499.0224581546992</v>
+        <v>263.4927693551518</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>696.3667790113369</v>
       </c>
       <c r="N42" t="n">
         <v>714.7975355477458</v>
@@ -34229,10 +34229,10 @@
         <v>524.8124774899704</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.8232427963641</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>170.638188050623</v>
       </c>
       <c r="S42" t="n">
         <v>51.04921774472928</v>
@@ -34360,37 +34360,37 @@
         <v>5.136631996764272</v>
       </c>
       <c r="H44" t="n">
-        <v>52.60553243686212</v>
+        <v>52.60553243686211</v>
       </c>
       <c r="I44" t="n">
         <v>198.0300050552548</v>
       </c>
       <c r="J44" t="n">
-        <v>435.9652199353721</v>
+        <v>435.965219935372</v>
       </c>
       <c r="K44" t="n">
-        <v>653.3988523584038</v>
+        <v>653.3988523584037</v>
       </c>
       <c r="L44" t="n">
-        <v>810.5990538293787</v>
+        <v>810.5990538293785</v>
       </c>
       <c r="M44" t="n">
-        <v>901.9476331018352</v>
+        <v>901.9476331018351</v>
       </c>
       <c r="N44" t="n">
-        <v>916.5420887626418</v>
+        <v>916.5420887626417</v>
       </c>
       <c r="O44" t="n">
-        <v>865.4647043448171</v>
+        <v>865.4647043448168</v>
       </c>
       <c r="P44" t="n">
-        <v>738.6541019246989</v>
+        <v>738.6541019246988</v>
       </c>
       <c r="Q44" t="n">
-        <v>554.6984685405782</v>
+        <v>554.6984685405781</v>
       </c>
       <c r="R44" t="n">
-        <v>322.663959666744</v>
+        <v>322.6639596667439</v>
       </c>
       <c r="S44" t="n">
         <v>117.051001626266</v>
@@ -34436,43 +34436,43 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.748340412231</v>
+        <v>2.748340412230999</v>
       </c>
       <c r="H45" t="n">
-        <v>26.54318240233624</v>
+        <v>26.54318240233623</v>
       </c>
       <c r="I45" t="n">
-        <v>94.62487822812872</v>
+        <v>94.62487822812871</v>
       </c>
       <c r="J45" t="n">
-        <v>259.6578983327543</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>443.7967059522312</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>596.7394390679633</v>
       </c>
       <c r="M45" t="n">
-        <v>477.6434282101844</v>
+        <v>696.3667790113368</v>
       </c>
       <c r="N45" t="n">
-        <v>714.7975355477458</v>
+        <v>381.5508658349345</v>
       </c>
       <c r="O45" t="n">
-        <v>653.9000979925221</v>
+        <v>653.900097992522</v>
       </c>
       <c r="P45" t="n">
         <v>524.8124774899704</v>
       </c>
       <c r="Q45" t="n">
-        <v>350.8232427963641</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>170.638188050623</v>
       </c>
       <c r="S45" t="n">
-        <v>51.04921774472928</v>
+        <v>51.04921774472927</v>
       </c>
       <c r="T45" t="n">
         <v>11.07774052122933</v>
@@ -34533,13 +34533,13 @@
         <v>342.5592511340474</v>
       </c>
       <c r="M46" t="n">
-        <v>361.1806999696941</v>
+        <v>361.180699969694</v>
       </c>
       <c r="N46" t="n">
-        <v>352.5926302029732</v>
+        <v>352.5926302029731</v>
       </c>
       <c r="O46" t="n">
-        <v>325.6763627633711</v>
+        <v>325.676362763371</v>
       </c>
       <c r="P46" t="n">
         <v>278.6723906742915</v>
@@ -34551,13 +34551,13 @@
         <v>103.6014465029349</v>
       </c>
       <c r="S46" t="n">
-        <v>40.15446278732839</v>
+        <v>40.15446278732838</v>
       </c>
       <c r="T46" t="n">
-        <v>9.844860464290218</v>
+        <v>9.844860464290216</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1256790697568966</v>
+        <v>0.1256790697568965</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>6.204371275661517</v>
       </c>
       <c r="K5" t="n">
-        <v>6.204371275661186</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>6.465607960952184</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>6.465607960952525</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>6.465607960952525</v>
       </c>
       <c r="O5" t="n">
-        <v>6.465607960952184</v>
+        <v>6.465607960952525</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.465607960952184</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,16 +35018,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>6.204371275661174</v>
+        <v>6.204371275661487</v>
       </c>
       <c r="M6" t="n">
-        <v>6.465607960952184</v>
+        <v>6.465607960952525</v>
       </c>
       <c r="N6" t="n">
-        <v>6.465607960952184</v>
+        <v>6.465607960952525</v>
       </c>
       <c r="O6" t="n">
-        <v>6.465607960952184</v>
+        <v>6.465607960952525</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>6.465607960952525</v>
       </c>
       <c r="L7" t="n">
-        <v>6.465607960952184</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>6.204371275661517</v>
       </c>
       <c r="N7" t="n">
-        <v>6.465607960952184</v>
+        <v>6.465607960952525</v>
       </c>
       <c r="O7" t="n">
-        <v>6.465607960952184</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>6.204371275661188</v>
+        <v>6.465607960952525</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N8" t="n">
-        <v>6.876045741711437</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>6.876045741711437</v>
+        <v>2.035939104100421</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35334,19 +35334,19 @@
         <v>6.598225711743296</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="P10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>254.9193154086856</v>
+        <v>254.9193154086858</v>
       </c>
       <c r="K11" t="n">
-        <v>433.309001313423</v>
+        <v>433.3090013134233</v>
       </c>
       <c r="L11" t="n">
-        <v>574.8326388593912</v>
+        <v>574.8326388593914</v>
       </c>
       <c r="M11" t="n">
-        <v>671.6013998745623</v>
+        <v>671.6013998745625</v>
       </c>
       <c r="N11" t="n">
-        <v>687.1290251660505</v>
+        <v>687.129025166051</v>
       </c>
       <c r="O11" t="n">
-        <v>635.36649292313</v>
+        <v>635.3664929231303</v>
       </c>
       <c r="P11" t="n">
-        <v>507.4211061694292</v>
+        <v>507.4211061694294</v>
       </c>
       <c r="Q11" t="n">
-        <v>332.3927786661285</v>
+        <v>332.3927786661287</v>
       </c>
       <c r="R11" t="n">
-        <v>107.0784218526118</v>
+        <v>107.0784218526119</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>132.8202716660876</v>
       </c>
       <c r="K12" t="n">
-        <v>305.955266977872</v>
+        <v>305.9552669778722</v>
       </c>
       <c r="L12" t="n">
-        <v>458.185059288089</v>
+        <v>458.1850592880891</v>
       </c>
       <c r="M12" t="n">
-        <v>554.2327450893183</v>
+        <v>460.7801584644897</v>
       </c>
       <c r="N12" t="n">
-        <v>583.4558234644123</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>511.3038535480774</v>
+        <v>511.3038535480777</v>
       </c>
       <c r="P12" t="n">
-        <v>82.55008444948865</v>
+        <v>390.8380700756402</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.8414687103426</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>24.95868408665905</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>101.1865163219284</v>
+        <v>101.1865163219285</v>
       </c>
       <c r="K13" t="n">
-        <v>277.0716022783437</v>
+        <v>277.0716022783438</v>
       </c>
       <c r="L13" t="n">
-        <v>401.7939519164008</v>
+        <v>401.7939519164009</v>
       </c>
       <c r="M13" t="n">
-        <v>432.4092524535719</v>
+        <v>432.409252453572</v>
       </c>
       <c r="N13" t="n">
-        <v>428.369478104239</v>
+        <v>428.3694781042391</v>
       </c>
       <c r="O13" t="n">
-        <v>381.906166199448</v>
+        <v>381.9061661994481</v>
       </c>
       <c r="P13" t="n">
         <v>307.5956254612223</v>
       </c>
       <c r="Q13" t="n">
-        <v>138.420950858805</v>
+        <v>138.4209508588051</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>254.9193154086856</v>
+        <v>254.9193154086868</v>
       </c>
       <c r="K14" t="n">
-        <v>433.309001313423</v>
+        <v>433.3090013134233</v>
       </c>
       <c r="L14" t="n">
-        <v>574.8326388593912</v>
+        <v>574.8326388593914</v>
       </c>
       <c r="M14" t="n">
-        <v>671.6013998745623</v>
+        <v>671.6013998745625</v>
       </c>
       <c r="N14" t="n">
-        <v>687.1290251660505</v>
+        <v>687.129025166051</v>
       </c>
       <c r="O14" t="n">
-        <v>635.36649292313</v>
+        <v>635.3664929231303</v>
       </c>
       <c r="P14" t="n">
-        <v>507.4211061694292</v>
+        <v>507.4211061694294</v>
       </c>
       <c r="Q14" t="n">
-        <v>332.3927786661285</v>
+        <v>332.3927786661287</v>
       </c>
       <c r="R14" t="n">
-        <v>107.0784218526118</v>
+        <v>107.0784218526119</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>132.8202716660876</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>44.84361105092943</v>
       </c>
       <c r="L15" t="n">
-        <v>245.0108719294668</v>
+        <v>458.1850592880891</v>
       </c>
       <c r="M15" t="n">
-        <v>554.2327450893183</v>
+        <v>554.2327450893185</v>
       </c>
       <c r="N15" t="n">
-        <v>583.4558234644123</v>
+        <v>583.4558234644126</v>
       </c>
       <c r="O15" t="n">
-        <v>511.3038535480774</v>
+        <v>511.3038535480777</v>
       </c>
       <c r="P15" t="n">
-        <v>390.8380700756401</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.8414687103425</v>
+        <v>210.8414687103426</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35808,10 +35808,10 @@
         <v>277.0716022783437</v>
       </c>
       <c r="L16" t="n">
-        <v>401.7939519164008</v>
+        <v>401.7939519164009</v>
       </c>
       <c r="M16" t="n">
-        <v>432.4092524535719</v>
+        <v>432.409252453572</v>
       </c>
       <c r="N16" t="n">
         <v>428.369478104239</v>
@@ -35823,7 +35823,7 @@
         <v>307.5956254612223</v>
       </c>
       <c r="Q16" t="n">
-        <v>138.420950858805</v>
+        <v>138.4209508588051</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>254.9193154086856</v>
+        <v>254.9193154086858</v>
       </c>
       <c r="K17" t="n">
-        <v>433.309001313423</v>
+        <v>433.3090013134233</v>
       </c>
       <c r="L17" t="n">
-        <v>574.8326388593912</v>
+        <v>574.8326388593914</v>
       </c>
       <c r="M17" t="n">
-        <v>671.6013998745623</v>
+        <v>671.6013998745625</v>
       </c>
       <c r="N17" t="n">
-        <v>687.1290251660505</v>
+        <v>687.129025166051</v>
       </c>
       <c r="O17" t="n">
-        <v>635.36649292313</v>
+        <v>635.3664929231303</v>
       </c>
       <c r="P17" t="n">
-        <v>507.4211061694292</v>
+        <v>507.4211061694294</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.3927786661285</v>
+        <v>332.3927786661287</v>
       </c>
       <c r="R17" t="n">
-        <v>107.0784218526118</v>
+        <v>107.0784218526119</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>132.8202716660876</v>
       </c>
       <c r="K18" t="n">
-        <v>305.955266977872</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>87.23191617671969</v>
       </c>
       <c r="M18" t="n">
-        <v>468.3296659542543</v>
+        <v>554.2327450893185</v>
       </c>
       <c r="N18" t="n">
-        <v>583.4558234644123</v>
+        <v>583.4558234644126</v>
       </c>
       <c r="O18" t="n">
-        <v>511.3038535480774</v>
+        <v>511.3038535480777</v>
       </c>
       <c r="P18" t="n">
-        <v>390.8380700756401</v>
+        <v>390.8380700756402</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.8414687103425</v>
+        <v>210.8414687103426</v>
       </c>
       <c r="R18" t="n">
-        <v>24.95868408665899</v>
+        <v>24.95868408665905</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,25 +36039,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>101.3002896747549</v>
+        <v>101.3002896747548</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1853756311702</v>
+        <v>277.1853756311701</v>
       </c>
       <c r="L19" t="n">
-        <v>399.1402038427756</v>
+        <v>401.9077252692272</v>
       </c>
       <c r="M19" t="n">
         <v>432.5230258063984</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4832514570655</v>
+        <v>428.4832514570654</v>
       </c>
       <c r="O19" t="n">
-        <v>382.0199395522744</v>
+        <v>379.2524181258246</v>
       </c>
       <c r="P19" t="n">
-        <v>307.7093988140488</v>
+        <v>307.7093988140487</v>
       </c>
       <c r="Q19" t="n">
         <v>138.5347242116315</v>
@@ -36142,7 +36142,7 @@
         <v>332.3927786661287</v>
       </c>
       <c r="R20" t="n">
-        <v>107.078421852611</v>
+        <v>107.0784218526119</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>132.8202716660876</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>87.23191617671975</v>
+        <v>305.9552669778722</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>458.1850592880891</v>
       </c>
       <c r="M21" t="n">
         <v>554.2327450893185</v>
       </c>
       <c r="N21" t="n">
-        <v>583.4558234644126</v>
+        <v>550.671538589336</v>
       </c>
       <c r="O21" t="n">
-        <v>511.3038535480777</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>390.8380700756402</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>101.3002896747549</v>
+        <v>101.3002896747548</v>
       </c>
       <c r="K22" t="n">
-        <v>277.1853756311703</v>
+        <v>274.4178542047205</v>
       </c>
       <c r="L22" t="n">
-        <v>399.1402038427749</v>
+        <v>401.9077252692272</v>
       </c>
       <c r="M22" t="n">
-        <v>432.5230258063985</v>
+        <v>432.5230258063984</v>
       </c>
       <c r="N22" t="n">
-        <v>428.4832514570656</v>
+        <v>428.4832514570654</v>
       </c>
       <c r="O22" t="n">
-        <v>382.0199395522745</v>
+        <v>382.0199395522744</v>
       </c>
       <c r="P22" t="n">
-        <v>307.7093988140488</v>
+        <v>307.7093988140487</v>
       </c>
       <c r="Q22" t="n">
-        <v>138.5347242116316</v>
+        <v>138.5347242116315</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>254.9193154086858</v>
       </c>
       <c r="K23" t="n">
-        <v>433.3090013134233</v>
+        <v>433.3090013134243</v>
       </c>
       <c r="L23" t="n">
         <v>574.8326388593914</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>132.8202716660876</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>305.9552669778722</v>
@@ -36443,10 +36443,10 @@
         <v>458.1850592880891</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>554.2327450893185</v>
       </c>
       <c r="N24" t="n">
-        <v>583.4558234644126</v>
+        <v>39.36768504125836</v>
       </c>
       <c r="O24" t="n">
         <v>511.3038535480777</v>
@@ -36455,7 +36455,7 @@
         <v>390.8380700756402</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.16580371041958</v>
+        <v>210.8414687103426</v>
       </c>
       <c r="R24" t="n">
         <v>24.95868408665905</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>101.3002896747549</v>
+        <v>101.3002896747548</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1853756311703</v>
+        <v>277.1853756311701</v>
       </c>
       <c r="L25" t="n">
-        <v>401.9077252692274</v>
+        <v>399.1402038427776</v>
       </c>
       <c r="M25" t="n">
-        <v>429.7555043799463</v>
+        <v>432.5230258063984</v>
       </c>
       <c r="N25" t="n">
-        <v>428.4832514570655</v>
+        <v>428.4832514570654</v>
       </c>
       <c r="O25" t="n">
-        <v>382.0199395522745</v>
+        <v>382.0199395522744</v>
       </c>
       <c r="P25" t="n">
-        <v>307.7093988140488</v>
+        <v>307.7093988140487</v>
       </c>
       <c r="Q25" t="n">
-        <v>138.5347242116316</v>
+        <v>138.5347242116315</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>574.8326388593914</v>
       </c>
       <c r="M26" t="n">
-        <v>673.226567652922</v>
+        <v>671.6013998745625</v>
       </c>
       <c r="N26" t="n">
         <v>687.129025166051</v>
@@ -36616,7 +36616,7 @@
         <v>332.3927786661287</v>
       </c>
       <c r="R26" t="n">
-        <v>107.0784218526119</v>
+        <v>108.7035896309712</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>132.8202716660876</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>305.9552669778722</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>458.1850592880891</v>
       </c>
       <c r="M27" t="n">
         <v>554.2327450893185</v>
       </c>
       <c r="N27" t="n">
-        <v>583.4558234644126</v>
+        <v>39.36768504125882</v>
       </c>
       <c r="O27" t="n">
         <v>511.3038535480777</v>
@@ -36692,10 +36692,10 @@
         <v>390.8380700756402</v>
       </c>
       <c r="Q27" t="n">
-        <v>17.07680199584924</v>
+        <v>210.8414687103426</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>24.95868408665905</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36762,7 +36762,7 @@
         <v>432.409252453572</v>
       </c>
       <c r="N28" t="n">
-        <v>428.3694781042391</v>
+        <v>428.369478104239</v>
       </c>
       <c r="O28" t="n">
         <v>381.906166199448</v>
@@ -36844,13 +36844,13 @@
         <v>687.129025166051</v>
       </c>
       <c r="O29" t="n">
-        <v>636.9916607014896</v>
+        <v>635.3664929231303</v>
       </c>
       <c r="P29" t="n">
         <v>507.4211061694294</v>
       </c>
       <c r="Q29" t="n">
-        <v>332.3927786661287</v>
+        <v>334.017946444488</v>
       </c>
       <c r="R29" t="n">
         <v>107.0784218526119</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>132.8202716660876</v>
       </c>
       <c r="K30" t="n">
-        <v>273.1709821027958</v>
+        <v>183.2796019779493</v>
       </c>
       <c r="L30" t="n">
         <v>458.1850592880891</v>
       </c>
       <c r="M30" t="n">
-        <v>554.2327450893185</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>583.4558234644126</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>511.3038535480777</v>
       </c>
       <c r="P30" t="n">
         <v>390.8380700756402</v>
@@ -36990,16 +36990,16 @@
         <v>101.1865163219284</v>
       </c>
       <c r="K31" t="n">
-        <v>277.0716022783437</v>
+        <v>277.0716022783438</v>
       </c>
       <c r="L31" t="n">
-        <v>401.7939519164008</v>
+        <v>401.7939519164009</v>
       </c>
       <c r="M31" t="n">
         <v>432.409252453572</v>
       </c>
       <c r="N31" t="n">
-        <v>428.3694781042391</v>
+        <v>428.369478104239</v>
       </c>
       <c r="O31" t="n">
         <v>381.906166199448</v>
@@ -37075,7 +37075,7 @@
         <v>574.8326388593914</v>
       </c>
       <c r="M32" t="n">
-        <v>671.6013998745609</v>
+        <v>671.6013998745625</v>
       </c>
       <c r="N32" t="n">
         <v>687.129025166051</v>
@@ -37151,16 +37151,16 @@
         <v>305.9552669778722</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>458.1850592880891</v>
       </c>
       <c r="M33" t="n">
-        <v>554.2327450893185</v>
+        <v>388.6281885481546</v>
       </c>
       <c r="N33" t="n">
         <v>583.4558234644126</v>
       </c>
       <c r="O33" t="n">
-        <v>292.580502746925</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>390.8380700756402</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>98.53276824830274</v>
+        <v>101.3002896747548</v>
       </c>
       <c r="K34" t="n">
-        <v>277.1853756311702</v>
+        <v>277.1853756311701</v>
       </c>
       <c r="L34" t="n">
-        <v>401.9077252692274</v>
+        <v>401.9077252692272</v>
       </c>
       <c r="M34" t="n">
-        <v>432.5230258063985</v>
+        <v>432.5230258063983</v>
       </c>
       <c r="N34" t="n">
-        <v>428.4832514570655</v>
+        <v>428.4832514570654</v>
       </c>
       <c r="O34" t="n">
-        <v>382.0199395522745</v>
+        <v>379.2524181258253</v>
       </c>
       <c r="P34" t="n">
-        <v>307.7093988140488</v>
+        <v>307.7093988140487</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.5347242116316</v>
+        <v>138.5347242116315</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>433.3090013134233</v>
       </c>
       <c r="L35" t="n">
-        <v>574.8326388593924</v>
+        <v>574.8326388593914</v>
       </c>
       <c r="M35" t="n">
         <v>671.6013998745625</v>
@@ -37385,25 +37385,25 @@
         <v>132.8202716660876</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>305.9552669778722</v>
       </c>
       <c r="L36" t="n">
-        <v>458.1850592880891</v>
+        <v>292.5805027469251</v>
       </c>
       <c r="M36" t="n">
         <v>554.2327450893185</v>
       </c>
       <c r="N36" t="n">
-        <v>423.3441490633857</v>
+        <v>583.4558234644126</v>
       </c>
       <c r="O36" t="n">
-        <v>511.3038535480777</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>390.8380700756402</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.8414687103426</v>
       </c>
       <c r="R36" t="n">
         <v>24.95868408665905</v>
@@ -37470,7 +37470,7 @@
         <v>401.9077252692273</v>
       </c>
       <c r="M37" t="n">
-        <v>432.5230258063984</v>
+        <v>429.7555043799477</v>
       </c>
       <c r="N37" t="n">
         <v>428.4832514570655</v>
@@ -37482,7 +37482,7 @@
         <v>307.7093988140488</v>
       </c>
       <c r="Q37" t="n">
-        <v>135.7672027851807</v>
+        <v>138.5347242116315</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>132.8202716660876</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>305.9552669778722</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>458.1850592880891</v>
       </c>
       <c r="M39" t="n">
-        <v>554.2327450893185</v>
+        <v>521.448460214242</v>
       </c>
       <c r="N39" t="n">
         <v>583.4558234644126</v>
       </c>
       <c r="O39" t="n">
-        <v>511.3038535480777</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>172.1147192744875</v>
+        <v>390.8380700756402</v>
       </c>
       <c r="Q39" t="n">
         <v>210.8414687103426</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>101.3002896747549</v>
+        <v>101.3002896747548</v>
       </c>
       <c r="K40" t="n">
-        <v>274.4178542047195</v>
+        <v>277.1853756311701</v>
       </c>
       <c r="L40" t="n">
-        <v>401.9077252692273</v>
+        <v>399.1402038427776</v>
       </c>
       <c r="M40" t="n">
         <v>432.5230258063984</v>
       </c>
       <c r="N40" t="n">
-        <v>428.4832514570655</v>
+        <v>428.4832514570654</v>
       </c>
       <c r="O40" t="n">
         <v>382.0199395522744</v>
       </c>
       <c r="P40" t="n">
-        <v>307.7093988140488</v>
+        <v>307.7093988140487</v>
       </c>
       <c r="Q40" t="n">
         <v>138.5347242116315</v>
@@ -37786,13 +37786,13 @@
         <v>574.8326388593914</v>
       </c>
       <c r="M41" t="n">
-        <v>671.6013998745636</v>
+        <v>671.6013998745625</v>
       </c>
       <c r="N41" t="n">
         <v>687.129025166051</v>
       </c>
       <c r="O41" t="n">
-        <v>635.3664929231303</v>
+        <v>635.3664929231312</v>
       </c>
       <c r="P41" t="n">
         <v>507.4211061694294</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>132.8202716660876</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>305.9552669778722</v>
       </c>
       <c r="L42" t="n">
-        <v>360.468078374825</v>
+        <v>124.9383895752776</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>554.2327450893185</v>
       </c>
       <c r="N42" t="n">
         <v>583.4558234644126</v>
@@ -37877,10 +37877,10 @@
         <v>390.8380700756402</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.8414687103426</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>24.95868408665905</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>101.1865163219285</v>
+        <v>101.1865163219284</v>
       </c>
       <c r="K43" t="n">
         <v>277.0716022783438</v>
@@ -37947,13 +37947,13 @@
         <v>432.409252453572</v>
       </c>
       <c r="N43" t="n">
-        <v>428.3694781042391</v>
+        <v>428.369478104239</v>
       </c>
       <c r="O43" t="n">
-        <v>381.9061661994481</v>
+        <v>381.906166199448</v>
       </c>
       <c r="P43" t="n">
-        <v>307.5956254612224</v>
+        <v>307.5956254612223</v>
       </c>
       <c r="Q43" t="n">
         <v>138.4209508588051</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>254.9193154086858</v>
+        <v>254.9193154086857</v>
       </c>
       <c r="K44" t="n">
-        <v>433.3090013134233</v>
+        <v>433.3090013134232</v>
       </c>
       <c r="L44" t="n">
-        <v>574.8326388593914</v>
+        <v>574.8326388593912</v>
       </c>
       <c r="M44" t="n">
-        <v>671.6013998745625</v>
+        <v>671.6013998745624</v>
       </c>
       <c r="N44" t="n">
-        <v>687.129025166051</v>
+        <v>687.1290251660507</v>
       </c>
       <c r="O44" t="n">
-        <v>635.3664929231303</v>
+        <v>635.3664929231301</v>
       </c>
       <c r="P44" t="n">
-        <v>507.4211061694294</v>
+        <v>507.4211061694293</v>
       </c>
       <c r="Q44" t="n">
-        <v>332.3927786661287</v>
+        <v>332.3927786661286</v>
       </c>
       <c r="R44" t="n">
-        <v>107.0784218526119</v>
+        <v>107.0784218526118</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>132.8202716660876</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>305.9552669778722</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>458.1850592880891</v>
       </c>
       <c r="M45" t="n">
-        <v>335.5093942881661</v>
+        <v>554.2327450893185</v>
       </c>
       <c r="N45" t="n">
-        <v>583.4558234644126</v>
+        <v>250.2091537516012</v>
       </c>
       <c r="O45" t="n">
-        <v>511.3038535480777</v>
+        <v>511.3038535480775</v>
       </c>
       <c r="P45" t="n">
         <v>390.8380700756402</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.8414687103426</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>24.95868408665905</v>
+        <v>24.95868408665902</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>101.1865163219285</v>
+        <v>101.1865163219284</v>
       </c>
       <c r="K46" t="n">
-        <v>277.0716022783438</v>
+        <v>277.0716022783437</v>
       </c>
       <c r="L46" t="n">
-        <v>401.7939519164009</v>
+        <v>401.7939519164008</v>
       </c>
       <c r="M46" t="n">
         <v>432.409252453572</v>
       </c>
       <c r="N46" t="n">
-        <v>428.3694781042391</v>
+        <v>428.369478104239</v>
       </c>
       <c r="O46" t="n">
-        <v>381.9061661994481</v>
+        <v>381.906166199448</v>
       </c>
       <c r="P46" t="n">
         <v>307.5956254612224</v>
